--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
@@ -1205,100 +1205,100 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.2473301041801955</v>
+        <v>0.2093325127113981</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>0.003827555897907408</v>
       </c>
       <c r="BL2">
-        <v>0.1594919023765798</v>
+        <v>0.1385404450187036</v>
       </c>
       <c r="BM2">
-        <v>0.04937079008747395</v>
+        <v>0.04978975254671478</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.0002129526333741349</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.0002459355492339376</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.007033681965074401</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.0004166460702352094</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.002585506484429488</v>
       </c>
       <c r="BS2">
-        <v>0.005300352966552085</v>
+        <v>0.01427175122325744</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>0.00119192052119825</v>
       </c>
       <c r="BU2">
-        <v>0.01770017044753307</v>
+        <v>0.02426522445547619</v>
       </c>
       <c r="BV2">
-        <v>0.2354247833835216</v>
+        <v>0.1997375727144969</v>
       </c>
       <c r="BW2">
-        <v>0.06806053986931215</v>
+        <v>0.06485251572432971</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.001300101142083561</v>
       </c>
       <c r="BY2">
-        <v>0.009729078059066037</v>
+        <v>0.01784102518497322</v>
       </c>
       <c r="BZ2">
-        <v>0.02435481658866099</v>
+        <v>0.02962845082419112</v>
       </c>
       <c r="CA2">
-        <v>0.01278162847004912</v>
+        <v>0.0203011888824589</v>
       </c>
       <c r="CB2">
-        <v>0.06044852465014733</v>
+        <v>0.05871771007475918</v>
       </c>
       <c r="CC2">
-        <v>0.03307249064115646</v>
+        <v>0.03665434797343926</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.0009744988580971247</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>0.005474622828939874</v>
       </c>
       <c r="CF2">
-        <v>0</v>
+        <v>0.002139501168460573</v>
       </c>
       <c r="CG2">
-        <v>0</v>
+        <v>0.001061084594973186</v>
       </c>
       <c r="CH2">
-        <v>0.01894032994562631</v>
+        <v>0.02526471503401784</v>
       </c>
       <c r="CI2">
-        <v>0.02473724205946225</v>
+        <v>0.02993666170807171</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>0.0001881774046588499</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>0.00363555955156626</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>0.001077647463509458</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>0.002697484392717032</v>
       </c>
       <c r="CN2">
-        <v>0.01332877844168294</v>
+        <v>0.0207421573567061</v>
       </c>
       <c r="CO2">
-        <v>0.0199284678329803</v>
+        <v>0.02606109204054713</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1486,100 +1486,100 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0348909637177272</v>
+        <v>0.03711687559767173</v>
       </c>
       <c r="BK3">
-        <v>0.1470856808091955</v>
+        <v>0.1243133832865542</v>
       </c>
       <c r="BL3">
-        <v>0.04429177386775178</v>
+        <v>0.0444230824831533</v>
       </c>
       <c r="BM3">
-        <v>0.180250884187144</v>
+        <v>0.1500890168129616</v>
       </c>
       <c r="BN3">
-        <v>0.02253335392956419</v>
+        <v>0.02751267635510591</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>0.0002471269617855058</v>
       </c>
       <c r="BP3">
-        <v>0.0002672952278985047</v>
+        <v>0.01020773892923721</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>0.00037419351219092</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>0.004249200646181578</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.00469588841729566</v>
       </c>
       <c r="BT3">
-        <v>0.002202130687835745</v>
+        <v>0.01171147189842502</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.0002678193797557961</v>
       </c>
       <c r="BV3">
-        <v>0.111263045431676</v>
+        <v>0.09647242265927848</v>
       </c>
       <c r="BW3">
-        <v>0.248766275303759</v>
+        <v>0.2033384298261971</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.004938861686870456</v>
       </c>
       <c r="BY3">
-        <v>0.01431262178447529</v>
+        <v>0.02112361319526844</v>
       </c>
       <c r="BZ3">
-        <v>0.004601794569158657</v>
+        <v>0.0135764644355328</v>
       </c>
       <c r="CA3">
-        <v>0.008438578648469986</v>
+        <v>0.01655837108091881</v>
       </c>
       <c r="CB3">
-        <v>0.06049208334728066</v>
+        <v>0.05701378592012855</v>
       </c>
       <c r="CC3">
-        <v>0.03963517984527064</v>
+        <v>0.04080402851152778</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>7.774337462435032E-05</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>0.004905337411745176</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>0.008685056241430442</v>
       </c>
       <c r="CG3">
-        <v>0</v>
+        <v>0.0004069603968339143</v>
       </c>
       <c r="CH3">
-        <v>0</v>
+        <v>0.004016262494010147</v>
       </c>
       <c r="CI3">
-        <v>0.05513994824749761</v>
+        <v>0.05285416502639524</v>
       </c>
       <c r="CJ3">
-        <v>0.002613020122511478</v>
+        <v>0.01203081067549751</v>
       </c>
       <c r="CK3">
-        <v>0</v>
+        <v>0.007456988153272313</v>
       </c>
       <c r="CL3">
-        <v>0</v>
+        <v>0.003276479072434141</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>0.0007876887986622826</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>0.008425324757325608</v>
       </c>
       <c r="CO3">
-        <v>0.02321537027278377</v>
+        <v>0.02804273200172791</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1593,88 +1593,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03986683293836458</v>
+        <v>0.04126560699817623</v>
       </c>
       <c r="E4">
-        <v>0.08657292628573839</v>
+        <v>0.07908738447869658</v>
       </c>
       <c r="F4">
-        <v>0.008070311355836472</v>
+        <v>0.01551733995720007</v>
       </c>
       <c r="G4">
-        <v>0.1190466351058682</v>
+        <v>0.10538402590035</v>
       </c>
       <c r="H4">
-        <v>0.02473342351880821</v>
+        <v>0.02901083674087628</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004755954425928269</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.005805511269069542</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0007838642273714046</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1074751592998817</v>
+        <v>0.09601364718337568</v>
       </c>
       <c r="P4">
-        <v>0.2421906041255418</v>
+        <v>0.2051038581648498</v>
       </c>
       <c r="Q4">
-        <v>0.07390068211864098</v>
+        <v>0.0688256227958662</v>
       </c>
       <c r="R4">
-        <v>0.003430382433436139</v>
+        <v>0.01176000667044331</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.001577991472250421</v>
       </c>
       <c r="T4">
-        <v>0.01499276674213758</v>
+        <v>0.02112302325193085</v>
       </c>
       <c r="U4">
-        <v>0.0608267943378947</v>
+        <v>0.05823861713964418</v>
       </c>
       <c r="V4">
-        <v>0.02769576501930714</v>
+        <v>0.0314096890751934</v>
       </c>
       <c r="W4">
-        <v>0.01949911196372877</v>
+        <v>0.02477218279421596</v>
       </c>
       <c r="X4">
-        <v>0.02072908014074349</v>
+        <v>0.02576818951122364</v>
       </c>
       <c r="Y4">
-        <v>0.01524185966118831</v>
+        <v>0.02132473434102239</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0007292941005787399</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03077044809183823</v>
+        <v>0.0338995136496337</v>
       </c>
       <c r="AC4">
-        <v>0.08162769974827043</v>
+        <v>0.07508282652306114</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.005795953453927211</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.0001082050119458137</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01076212610396975</v>
+        <v>0.01769712445909535</v>
       </c>
       <c r="AI4">
-        <v>0.01256739100880507</v>
+        <v>0.01915899640407388</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1877,64 +1877,64 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2939499457803168</v>
+        <v>0.2533371285205347</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0002859709115747184</v>
       </c>
       <c r="G5">
-        <v>0.1152390022795949</v>
+        <v>0.1045637220401328</v>
       </c>
       <c r="H5">
-        <v>0.03350188267291314</v>
+        <v>0.03651914971805245</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.007286915013325898</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.008058355154187161</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0343885196280096</v>
+        <v>0.03725725784695155</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.007918393339885241</v>
       </c>
       <c r="P5">
-        <v>0.0306072840014912</v>
+        <v>0.03410945226861031</v>
       </c>
       <c r="Q5">
-        <v>0.2163660115758969</v>
+        <v>0.1887500027763505</v>
       </c>
       <c r="R5">
-        <v>0.07715766622335322</v>
+        <v>0.07286174577929382</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03602912095151405</v>
+        <v>0.03862302674052257</v>
       </c>
       <c r="U5">
-        <v>0.04035459446491804</v>
+        <v>0.04222389984109609</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.006411779293954121</v>
       </c>
       <c r="W5">
-        <v>0.04492919299219782</v>
+        <v>0.04603216470082973</v>
       </c>
       <c r="X5">
-        <v>0.03259043628767676</v>
+        <v>0.03576038821805894</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1946,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.004387708282312727</v>
       </c>
       <c r="AC5">
-        <v>0.03292213402880542</v>
+        <v>0.03603652017675661</v>
       </c>
       <c r="AD5">
-        <v>0.001875611343449095</v>
+        <v>0.01019089008386375</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.003593959791043555</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.0001340470621467218</v>
       </c>
       <c r="AI5">
-        <v>0.0023124507985344</v>
+        <v>0.01055455048733434</v>
       </c>
       <c r="AJ5">
-        <v>0.007776146971328599</v>
+        <v>0.01510297195318176</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0004636128217272423</v>
       </c>
       <c r="J6">
-        <v>0.1388235336864395</v>
+        <v>0.1353170730801269</v>
       </c>
       <c r="K6">
-        <v>0.02433954884711353</v>
+        <v>0.02589181054395379</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2185,34 +2185,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.04499162237643357</v>
+        <v>0.04563132756927242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1916971093109504</v>
+        <v>0.1858543154905681</v>
       </c>
       <c r="Q6">
-        <v>0.1962233396365428</v>
+        <v>0.1901805445467304</v>
       </c>
       <c r="R6">
-        <v>0.01348104140743194</v>
+        <v>0.01551310972387198</v>
       </c>
       <c r="S6">
-        <v>0.009156237651297928</v>
+        <v>0.01137940676885543</v>
       </c>
       <c r="T6">
-        <v>0.006956750828153963</v>
+        <v>0.009277109024719723</v>
       </c>
       <c r="U6">
-        <v>0.02592967903679988</v>
+        <v>0.02741167739447727</v>
       </c>
       <c r="V6">
-        <v>0.1173052942859627</v>
+        <v>0.1147496635947037</v>
       </c>
       <c r="W6">
-        <v>0.05838568135588925</v>
+        <v>0.05843354110428264</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.05816819662834179</v>
+        <v>0.05822566640946931</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01882341776294719</v>
+        <v>0.02061942163369719</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06598970654387616</v>
+        <v>0.06570156600483902</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.001471384423345111</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.0002080477650089858</v>
       </c>
       <c r="AJ6">
-        <v>0.00275814937968192</v>
+        <v>0.005264031855641385</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2436,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0008471469587075961</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1799381470915395</v>
+        <v>0.2146672358136876</v>
       </c>
       <c r="F7">
-        <v>0.007597457599451735</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2156562552689074</v>
+        <v>0.261608316902376</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03698880842255309</v>
+        <v>0.02680184090772061</v>
       </c>
       <c r="K7">
-        <v>0.03174930882216172</v>
+        <v>0.01991604017088421</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2466,25 +2466,25 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.02941749863606588</v>
+        <v>0.01685155281098787</v>
       </c>
       <c r="O7">
-        <v>0.01659492249807113</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.04859284834041443</v>
+        <v>0.04205198170565482</v>
       </c>
       <c r="Q7">
-        <v>0.1668769538451806</v>
+        <v>0.1975020901053031</v>
       </c>
       <c r="R7">
-        <v>0.08346333914012737</v>
+        <v>0.08787911588934186</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.03651124251446142</v>
+        <v>0.02617421920094923</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.07660661195926761</v>
+        <v>0.07886793912148345</v>
       </c>
       <c r="X7">
-        <v>0.03765675853940191</v>
+        <v>0.02767966737161117</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2505,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01067242029506904</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.004330636990349741</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.004806333154225994</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01169330992404395</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2888,100 +2888,100 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.009259736863007455</v>
+        <v>0.01718004339568653</v>
       </c>
       <c r="BJ8">
-        <v>0.2149986458097085</v>
+        <v>0.1767109583960866</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>0.002126125758357715</v>
       </c>
       <c r="BL8">
-        <v>0.101033341264583</v>
+        <v>0.0883417267059685</v>
       </c>
       <c r="BM8">
-        <v>0.04112599367671425</v>
+        <v>0.04188928839535432</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>0.001124941608991041</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>0.007615974762130242</v>
       </c>
       <c r="BP8">
-        <v>0.01017041890882707</v>
+        <v>0.0178861905255018</v>
       </c>
       <c r="BQ8">
-        <v>0.003645636177601669</v>
+        <v>0.01282684339169905</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>0.003111658867014859</v>
       </c>
       <c r="BS8">
-        <v>0.08799828493413073</v>
+        <v>0.07823428288736871</v>
       </c>
       <c r="BT8">
-        <v>0.0168011098121745</v>
+        <v>0.02302765935272242</v>
       </c>
       <c r="BU8">
-        <v>0.03774172255069221</v>
+        <v>0.03926510869056353</v>
       </c>
       <c r="BV8">
-        <v>0.1596775166957823</v>
+        <v>0.1338146954014857</v>
       </c>
       <c r="BW8">
-        <v>0.1162298608886736</v>
+        <v>0.1001251793006392</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>0.0008993129308328461</v>
       </c>
       <c r="BY8">
-        <v>0.07309321835318397</v>
+        <v>0.06667682434939075</v>
       </c>
       <c r="BZ8">
-        <v>0.021609632256339</v>
+        <v>0.02675621020994628</v>
       </c>
       <c r="CA8">
-        <v>0</v>
+        <v>0.00514434149570731</v>
       </c>
       <c r="CB8">
-        <v>0.03764933306047166</v>
+        <v>0.03919346944650045</v>
       </c>
       <c r="CC8">
-        <v>0.03001692826081864</v>
+        <v>0.03327526696561958</v>
       </c>
       <c r="CD8">
-        <v>0</v>
+        <v>0.007672044909451907</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>0.0001481460009841318</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>0.002185678910124431</v>
       </c>
       <c r="CG8">
-        <v>0.008332582364986709</v>
+        <v>0.01646112344917168</v>
       </c>
       <c r="CH8">
-        <v>0.02471788756209708</v>
+        <v>0.0291663659530726</v>
       </c>
       <c r="CI8">
-        <v>0.005898150560207556</v>
+        <v>0.01457345360922369</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>0.001850616300191951</v>
       </c>
       <c r="CK8">
-        <v>0</v>
+        <v>0.0001359199660855983</v>
       </c>
       <c r="CL8">
-        <v>0</v>
+        <v>0.000992379313716903</v>
       </c>
       <c r="CM8">
-        <v>0</v>
+        <v>0.001795959210499964</v>
       </c>
       <c r="CN8">
-        <v>0</v>
+        <v>0.009792209539909539</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -3001,67 +3001,67 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1069619149432662</v>
+        <v>0.1197584319880342</v>
       </c>
       <c r="F9">
-        <v>0.08178613532750684</v>
+        <v>0.08848680175649863</v>
       </c>
       <c r="G9">
-        <v>0.05196855079937016</v>
+        <v>0.05144943918053463</v>
       </c>
       <c r="H9">
-        <v>0.1064377428010398</v>
+        <v>0.119107341230983</v>
       </c>
       <c r="I9">
-        <v>0.0007992951523361575</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.008201641160581233</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.04066186022455534</v>
+        <v>0.03740504205780697</v>
       </c>
       <c r="L9">
-        <v>0.01895061825153265</v>
+        <v>0.01043682334879206</v>
       </c>
       <c r="M9">
-        <v>0.01054826881940013</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05690782682588857</v>
+        <v>0.0575846697819371</v>
       </c>
       <c r="P9">
-        <v>0.006960454784774057</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.06791828367004614</v>
+        <v>0.07126110564075924</v>
       </c>
       <c r="R9">
-        <v>0.1523846705371521</v>
+        <v>0.1761794699343724</v>
       </c>
       <c r="S9">
-        <v>0.1180077444566169</v>
+        <v>0.1334788053553741</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.06935400322796882</v>
+        <v>0.07304445820488151</v>
       </c>
       <c r="V9">
-        <v>0.003696201270124864</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04574546466063584</v>
+        <v>0.04371954753071755</v>
       </c>
       <c r="Y9">
-        <v>0.02132495092655607</v>
+        <v>0.01338605688170346</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.009550918345702162</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.0143337028954729</v>
+        <v>0.004702007107605172</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.0005145793996081883</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.006985171519864962</v>
+        <v>0</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -3279,16 +3279,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1005885819261616</v>
+        <v>0.1139540284563145</v>
       </c>
       <c r="E10">
-        <v>0.08840920328319191</v>
+        <v>0.09487063092246464</v>
       </c>
       <c r="F10">
-        <v>0.05399010710229436</v>
+        <v>0.04094067977877283</v>
       </c>
       <c r="G10">
-        <v>0.1771157046911252</v>
+        <v>0.2338614185339284</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3297,46 +3297,46 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03517206520175248</v>
+        <v>0.01145541744119264</v>
       </c>
       <c r="K10">
-        <v>0.003347645476713569</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.02786100508878851</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.03534378959805565</v>
+        <v>0.01172448575879563</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.1119522342152387</v>
+        <v>0.1317592959027024</v>
       </c>
       <c r="Q10">
-        <v>0.2161913158114382</v>
+        <v>0.2950874829126306</v>
       </c>
       <c r="R10">
-        <v>0.05789064380256825</v>
+        <v>0.04705227993742821</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.01723499229786132</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.000446829102088093</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.04017497306433962</v>
+        <v>0.0192942803557702</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.01171673388910171</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.02256417544928089</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3563,67 +3563,67 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01352648852968035</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1881668793328171</v>
+        <v>0.2825020125775176</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.1206470375595145</v>
+        <v>0.160734259415897</v>
       </c>
       <c r="I11">
-        <v>0.04338411455813369</v>
+        <v>0.02139547707447558</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.03152038882431405</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.03928437409572748</v>
+        <v>0.01400185511770172</v>
       </c>
       <c r="M11">
-        <v>0.01660100310296595</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.05913597655672697</v>
+        <v>0.04980296135325276</v>
       </c>
       <c r="P11">
-        <v>0.0003333450205601778</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.03528253707718775</v>
+        <v>0.006784795813820794</v>
       </c>
       <c r="R11">
-        <v>0.1563962293990438</v>
+        <v>0.225205660019274</v>
       </c>
       <c r="S11">
-        <v>0.1185047844273996</v>
+        <v>0.1568708417337747</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.06809820626891472</v>
+        <v>0.06596577433844142</v>
       </c>
       <c r="V11">
-        <v>0.02212849554473813</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.04080064999601662</v>
+        <v>0.01673636255584453</v>
       </c>
       <c r="Y11">
-        <v>0.02840095389624157</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.002099625915580759</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.005952471413737205</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.009736438480699446</v>
+        <v>0</v>
       </c>
       <c r="AK11">
         <v>0</v>
@@ -4309,97 +4309,97 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.2473301041801955</v>
+        <v>0.2093325127113981</v>
       </c>
       <c r="BK2">
-        <v>0.2473301041801955</v>
+        <v>0.2131600686093055</v>
       </c>
       <c r="BL2">
-        <v>0.4068220065567753</v>
+        <v>0.351700513628009</v>
       </c>
       <c r="BM2">
-        <v>0.4561927966442493</v>
+        <v>0.4014902661747238</v>
       </c>
       <c r="BN2">
-        <v>0.4561927966442493</v>
+        <v>0.401703218808098</v>
       </c>
       <c r="BO2">
-        <v>0.4561927966442493</v>
+        <v>0.4019491543573319</v>
       </c>
       <c r="BP2">
-        <v>0.4561927966442493</v>
+        <v>0.4089828363224063</v>
       </c>
       <c r="BQ2">
-        <v>0.4561927966442493</v>
+        <v>0.4093994823926415</v>
       </c>
       <c r="BR2">
-        <v>0.4561927966442493</v>
+        <v>0.411984988877071</v>
       </c>
       <c r="BS2">
-        <v>0.4614931496108013</v>
+        <v>0.4262567401003284</v>
       </c>
       <c r="BT2">
-        <v>0.4614931496108013</v>
+        <v>0.4274486606215267</v>
       </c>
       <c r="BU2">
-        <v>0.4791933200583344</v>
+        <v>0.4517138850770029</v>
       </c>
       <c r="BV2">
-        <v>0.7146181034418561</v>
+        <v>0.6514514577914998</v>
       </c>
       <c r="BW2">
-        <v>0.7826786433111682</v>
+        <v>0.7163039735158295</v>
       </c>
       <c r="BX2">
-        <v>0.7826786433111682</v>
+        <v>0.7176040746579131</v>
       </c>
       <c r="BY2">
-        <v>0.7924077213702343</v>
+        <v>0.7354450998428863</v>
       </c>
       <c r="BZ2">
-        <v>0.8167625379588953</v>
+        <v>0.7650735506670774</v>
       </c>
       <c r="CA2">
-        <v>0.8295441664289445</v>
+        <v>0.7853747395495363</v>
       </c>
       <c r="CB2">
-        <v>0.8899926910790918</v>
+        <v>0.8440924496242955</v>
       </c>
       <c r="CC2">
-        <v>0.9230651817202483</v>
+        <v>0.8807467975977348</v>
       </c>
       <c r="CD2">
-        <v>0.9230651817202483</v>
+        <v>0.8817212964558319</v>
       </c>
       <c r="CE2">
-        <v>0.9230651817202483</v>
+        <v>0.8871959192847717</v>
       </c>
       <c r="CF2">
-        <v>0.9230651817202483</v>
+        <v>0.8893354204532323</v>
       </c>
       <c r="CG2">
-        <v>0.9230651817202483</v>
+        <v>0.8903965050482056</v>
       </c>
       <c r="CH2">
-        <v>0.9420055116658747</v>
+        <v>0.9156612200822234</v>
       </c>
       <c r="CI2">
-        <v>0.9667427537253369</v>
+        <v>0.9455978817902951</v>
       </c>
       <c r="CJ2">
-        <v>0.9667427537253369</v>
+        <v>0.945786059194954</v>
       </c>
       <c r="CK2">
-        <v>0.9667427537253369</v>
+        <v>0.9494216187465202</v>
       </c>
       <c r="CL2">
-        <v>0.9667427537253369</v>
+        <v>0.9504992662100297</v>
       </c>
       <c r="CM2">
-        <v>0.9667427537253369</v>
+        <v>0.9531967506027467</v>
       </c>
       <c r="CN2">
-        <v>0.9800715321670198</v>
+        <v>0.9739389079594528</v>
       </c>
       <c r="CO2">
         <v>1</v>
@@ -4590,97 +4590,97 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0348909637177272</v>
+        <v>0.03711687559767173</v>
       </c>
       <c r="BK3">
-        <v>0.1819766445269227</v>
+        <v>0.1614302588842259</v>
       </c>
       <c r="BL3">
-        <v>0.2262684183946745</v>
+        <v>0.2058533413673792</v>
       </c>
       <c r="BM3">
-        <v>0.4065193025818185</v>
+        <v>0.3559423581803408</v>
       </c>
       <c r="BN3">
-        <v>0.4290526565113826</v>
+        <v>0.3834550345354467</v>
       </c>
       <c r="BO3">
-        <v>0.4290526565113826</v>
+        <v>0.3837021614972322</v>
       </c>
       <c r="BP3">
-        <v>0.4293199517392811</v>
+        <v>0.3939099004264695</v>
       </c>
       <c r="BQ3">
-        <v>0.4293199517392811</v>
+        <v>0.3942840939386604</v>
       </c>
       <c r="BR3">
-        <v>0.4293199517392811</v>
+        <v>0.3985332945848419</v>
       </c>
       <c r="BS3">
-        <v>0.4293199517392811</v>
+        <v>0.4032291830021376</v>
       </c>
       <c r="BT3">
-        <v>0.4315220824271169</v>
+        <v>0.4149406549005626</v>
       </c>
       <c r="BU3">
-        <v>0.4315220824271169</v>
+        <v>0.4152084742803184</v>
       </c>
       <c r="BV3">
-        <v>0.542785127858793</v>
+        <v>0.511680896939597</v>
       </c>
       <c r="BW3">
-        <v>0.7915514031625519</v>
+        <v>0.715019326765794</v>
       </c>
       <c r="BX3">
-        <v>0.7915514031625519</v>
+        <v>0.7199581884526645</v>
       </c>
       <c r="BY3">
-        <v>0.8058640249470271</v>
+        <v>0.7410818016479329</v>
       </c>
       <c r="BZ3">
-        <v>0.8104658195161858</v>
+        <v>0.7546582660834658</v>
       </c>
       <c r="CA3">
-        <v>0.8189043981646558</v>
+        <v>0.7712166371643846</v>
       </c>
       <c r="CB3">
-        <v>0.8793964815119364</v>
+        <v>0.8282304230845131</v>
       </c>
       <c r="CC3">
-        <v>0.919031661357207</v>
+        <v>0.8690344515960409</v>
       </c>
       <c r="CD3">
-        <v>0.919031661357207</v>
+        <v>0.8691121949706652</v>
       </c>
       <c r="CE3">
-        <v>0.919031661357207</v>
+        <v>0.8740175323824103</v>
       </c>
       <c r="CF3">
-        <v>0.919031661357207</v>
+        <v>0.8827025886238408</v>
       </c>
       <c r="CG3">
-        <v>0.919031661357207</v>
+        <v>0.8831095490206747</v>
       </c>
       <c r="CH3">
-        <v>0.919031661357207</v>
+        <v>0.8871258115146848</v>
       </c>
       <c r="CI3">
-        <v>0.9741716096047046</v>
+        <v>0.9399799765410801</v>
       </c>
       <c r="CJ3">
-        <v>0.9767846297272161</v>
+        <v>0.9520107872165776</v>
       </c>
       <c r="CK3">
-        <v>0.9767846297272161</v>
+        <v>0.95946777536985</v>
       </c>
       <c r="CL3">
-        <v>0.9767846297272161</v>
+        <v>0.9627442544422841</v>
       </c>
       <c r="CM3">
-        <v>0.9767846297272161</v>
+        <v>0.9635319432409464</v>
       </c>
       <c r="CN3">
-        <v>0.9767846297272161</v>
+        <v>0.971957267998272</v>
       </c>
       <c r="CO3">
         <v>0.9999999999999999</v>
@@ -4697,97 +4697,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03986683293836458</v>
+        <v>0.04126560699817623</v>
       </c>
       <c r="E4">
-        <v>0.126439759224103</v>
+        <v>0.1203529914768728</v>
       </c>
       <c r="F4">
-        <v>0.1345100705799394</v>
+        <v>0.1358703314340729</v>
       </c>
       <c r="G4">
-        <v>0.2535567056858076</v>
+        <v>0.2412543573344229</v>
       </c>
       <c r="H4">
-        <v>0.2782901292046158</v>
+        <v>0.2702651940752991</v>
       </c>
       <c r="I4">
-        <v>0.2782901292046158</v>
+        <v>0.2750211485012274</v>
       </c>
       <c r="J4">
-        <v>0.2782901292046158</v>
+        <v>0.2750211485012274</v>
       </c>
       <c r="K4">
-        <v>0.2782901292046158</v>
+        <v>0.2808266597702969</v>
       </c>
       <c r="L4">
-        <v>0.2782901292046158</v>
+        <v>0.2808266597702969</v>
       </c>
       <c r="M4">
-        <v>0.2782901292046158</v>
+        <v>0.2816105239976683</v>
       </c>
       <c r="N4">
-        <v>0.2782901292046158</v>
+        <v>0.2816105239976683</v>
       </c>
       <c r="O4">
-        <v>0.3857652885044975</v>
+        <v>0.377624171181044</v>
       </c>
       <c r="P4">
-        <v>0.6279558926300393</v>
+        <v>0.5827280293458938</v>
       </c>
       <c r="Q4">
-        <v>0.7018565747486802</v>
+        <v>0.6515536521417601</v>
       </c>
       <c r="R4">
-        <v>0.7052869571821164</v>
+        <v>0.6633136588122034</v>
       </c>
       <c r="S4">
-        <v>0.7052869571821164</v>
+        <v>0.6648916502844539</v>
       </c>
       <c r="T4">
-        <v>0.720279723924254</v>
+        <v>0.6860146735363847</v>
       </c>
       <c r="U4">
-        <v>0.7811065182621487</v>
+        <v>0.7442532906760289</v>
       </c>
       <c r="V4">
-        <v>0.8088022832814559</v>
+        <v>0.7756629797512222</v>
       </c>
       <c r="W4">
-        <v>0.8283013952451846</v>
+        <v>0.8004351625454382</v>
       </c>
       <c r="X4">
-        <v>0.8490304753859281</v>
+        <v>0.8262033520566618</v>
       </c>
       <c r="Y4">
-        <v>0.8642723350471164</v>
+        <v>0.8475280863976843</v>
       </c>
       <c r="Z4">
-        <v>0.8642723350471164</v>
+        <v>0.848257380498263</v>
       </c>
       <c r="AA4">
-        <v>0.8642723350471164</v>
+        <v>0.848257380498263</v>
       </c>
       <c r="AB4">
-        <v>0.8950427831389547</v>
+        <v>0.8821568941478968</v>
       </c>
       <c r="AC4">
-        <v>0.9766704828872251</v>
+        <v>0.957239720670958</v>
       </c>
       <c r="AD4">
-        <v>0.9766704828872251</v>
+        <v>0.9630356741248852</v>
       </c>
       <c r="AE4">
-        <v>0.9766704828872251</v>
+        <v>0.9631438791368311</v>
       </c>
       <c r="AF4">
-        <v>0.9766704828872251</v>
+        <v>0.9631438791368311</v>
       </c>
       <c r="AG4">
-        <v>0.9766704828872251</v>
+        <v>0.9631438791368311</v>
       </c>
       <c r="AH4">
-        <v>0.9874326089911949</v>
+        <v>0.9808410035959264</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -4981,271 +4981,271 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2939499457803168</v>
+        <v>0.2533371285205347</v>
       </c>
       <c r="F5">
-        <v>0.2939499457803168</v>
+        <v>0.2536230994321094</v>
       </c>
       <c r="G5">
-        <v>0.4091889480599117</v>
+        <v>0.3581868214722422</v>
       </c>
       <c r="H5">
-        <v>0.4426908307328249</v>
+        <v>0.3947059711902947</v>
       </c>
       <c r="I5">
-        <v>0.4426908307328249</v>
+        <v>0.3947059711902947</v>
       </c>
       <c r="J5">
-        <v>0.4426908307328249</v>
+        <v>0.4019928862036206</v>
       </c>
       <c r="K5">
-        <v>0.4426908307328249</v>
+        <v>0.4019928862036206</v>
       </c>
       <c r="L5">
-        <v>0.4426908307328249</v>
+        <v>0.4100512413578078</v>
       </c>
       <c r="M5">
-        <v>0.4426908307328249</v>
+        <v>0.4100512413578078</v>
       </c>
       <c r="N5">
-        <v>0.4770793503608345</v>
+        <v>0.4473084992047593</v>
       </c>
       <c r="O5">
-        <v>0.4770793503608345</v>
+        <v>0.4552268925446446</v>
       </c>
       <c r="P5">
-        <v>0.5076866343623256</v>
+        <v>0.4893363448132549</v>
       </c>
       <c r="Q5">
-        <v>0.7240526459382225</v>
+        <v>0.6780863475896054</v>
       </c>
       <c r="R5">
-        <v>0.8012103121615757</v>
+        <v>0.7509480933688992</v>
       </c>
       <c r="S5">
-        <v>0.8012103121615757</v>
+        <v>0.7509480933688992</v>
       </c>
       <c r="T5">
-        <v>0.8372394331130897</v>
+        <v>0.7895711201094218</v>
       </c>
       <c r="U5">
-        <v>0.8775940275780078</v>
+        <v>0.8317950199505179</v>
       </c>
       <c r="V5">
-        <v>0.8775940275780078</v>
+        <v>0.8382067992444719</v>
       </c>
       <c r="W5">
-        <v>0.9225232205702055</v>
+        <v>0.8842389639453017</v>
       </c>
       <c r="X5">
-        <v>0.9551136568578823</v>
+        <v>0.9199993521633606</v>
       </c>
       <c r="Y5">
-        <v>0.9551136568578823</v>
+        <v>0.9199993521633606</v>
       </c>
       <c r="Z5">
-        <v>0.9551136568578823</v>
+        <v>0.9199993521633606</v>
       </c>
       <c r="AA5">
-        <v>0.9551136568578823</v>
+        <v>0.9199993521633606</v>
       </c>
       <c r="AB5">
-        <v>0.9551136568578823</v>
+        <v>0.9243870604456733</v>
       </c>
       <c r="AC5">
-        <v>0.9880357908866877</v>
+        <v>0.9604235806224299</v>
       </c>
       <c r="AD5">
-        <v>0.9899114022301367</v>
+        <v>0.9706144707062937</v>
       </c>
       <c r="AE5">
-        <v>0.9899114022301367</v>
+        <v>0.9706144707062937</v>
       </c>
       <c r="AF5">
-        <v>0.9899114022301367</v>
+        <v>0.9706144707062937</v>
       </c>
       <c r="AG5">
-        <v>0.9899114022301367</v>
+        <v>0.9742084304973373</v>
       </c>
       <c r="AH5">
-        <v>0.9899114022301367</v>
+        <v>0.974342477559484</v>
       </c>
       <c r="AI5">
-        <v>0.9922238530286711</v>
+        <v>0.9848970280468183</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:93">
@@ -5262,271 +5262,271 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="G6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="H6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="I6">
-        <v>0.02697069126213737</v>
+        <v>0.02887030306643674</v>
       </c>
       <c r="J6">
-        <v>0.1657942249485769</v>
+        <v>0.1641873761465636</v>
       </c>
       <c r="K6">
-        <v>0.1901337737956905</v>
+        <v>0.1900791866905174</v>
       </c>
       <c r="L6">
-        <v>0.1901337737956905</v>
+        <v>0.1900791866905174</v>
       </c>
       <c r="M6">
-        <v>0.1901337737956905</v>
+        <v>0.1900791866905174</v>
       </c>
       <c r="N6">
-        <v>0.235125396172124</v>
+        <v>0.2357105142597898</v>
       </c>
       <c r="O6">
-        <v>0.235125396172124</v>
+        <v>0.2357105142597898</v>
       </c>
       <c r="P6">
-        <v>0.4268225054830744</v>
+        <v>0.4215648297503579</v>
       </c>
       <c r="Q6">
-        <v>0.6230458451196171</v>
+        <v>0.6117453742970883</v>
       </c>
       <c r="R6">
-        <v>0.636526886527049</v>
+        <v>0.6272584840209603</v>
       </c>
       <c r="S6">
-        <v>0.6456831241783469</v>
+        <v>0.6386378907898157</v>
       </c>
       <c r="T6">
-        <v>0.6526398750065009</v>
+        <v>0.6479149998145354</v>
       </c>
       <c r="U6">
-        <v>0.6785695540433008</v>
+        <v>0.6753266772090126</v>
       </c>
       <c r="V6">
-        <v>0.7958748483292635</v>
+        <v>0.7900763408037164</v>
       </c>
       <c r="W6">
-        <v>0.8542605296851528</v>
+        <v>0.848509881907999</v>
       </c>
       <c r="X6">
-        <v>0.8542605296851528</v>
+        <v>0.848509881907999</v>
       </c>
       <c r="Y6">
-        <v>0.8542605296851528</v>
+        <v>0.848509881907999</v>
       </c>
       <c r="Z6">
-        <v>0.9124287263134946</v>
+        <v>0.9067355483174684</v>
       </c>
       <c r="AA6">
-        <v>0.9124287263134946</v>
+        <v>0.9067355483174684</v>
       </c>
       <c r="AB6">
-        <v>0.9312521440764417</v>
+        <v>0.9273549699511656</v>
       </c>
       <c r="AC6">
-        <v>0.9312521440764417</v>
+        <v>0.9273549699511656</v>
       </c>
       <c r="AD6">
-        <v>0.9972418506203179</v>
+        <v>0.9930565359560046</v>
       </c>
       <c r="AE6">
-        <v>0.9972418506203179</v>
+        <v>0.9930565359560046</v>
       </c>
       <c r="AF6">
-        <v>0.9972418506203179</v>
+        <v>0.9930565359560046</v>
       </c>
       <c r="AG6">
-        <v>0.9972418506203179</v>
+        <v>0.9945279203793498</v>
       </c>
       <c r="AH6">
-        <v>0.9972418506203179</v>
+        <v>0.9945279203793498</v>
       </c>
       <c r="AI6">
-        <v>0.9972418506203179</v>
+        <v>0.9947359681443587</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -5540,274 +5540,274 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0008471469587075961</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1807852940502471</v>
+        <v>0.2146672358136876</v>
       </c>
       <c r="F7">
-        <v>0.1883827516496988</v>
+        <v>0.2146672358136876</v>
       </c>
       <c r="G7">
-        <v>0.4040390069186062</v>
+        <v>0.4762755527160636</v>
       </c>
       <c r="H7">
-        <v>0.4040390069186062</v>
+        <v>0.4762755527160636</v>
       </c>
       <c r="I7">
-        <v>0.4040390069186062</v>
+        <v>0.4762755527160636</v>
       </c>
       <c r="J7">
-        <v>0.4410278153411593</v>
+        <v>0.5030773936237842</v>
       </c>
       <c r="K7">
-        <v>0.472777124163321</v>
+        <v>0.5229934337946684</v>
       </c>
       <c r="L7">
-        <v>0.472777124163321</v>
+        <v>0.5229934337946684</v>
       </c>
       <c r="M7">
-        <v>0.472777124163321</v>
+        <v>0.5229934337946684</v>
       </c>
       <c r="N7">
-        <v>0.5021946227993869</v>
+        <v>0.5398449866056563</v>
       </c>
       <c r="O7">
-        <v>0.518789545297458</v>
+        <v>0.5398449866056563</v>
       </c>
       <c r="P7">
-        <v>0.5673823936378725</v>
+        <v>0.5818969683113111</v>
       </c>
       <c r="Q7">
-        <v>0.7342593474830531</v>
+        <v>0.7793990584166142</v>
       </c>
       <c r="R7">
-        <v>0.8177226866231805</v>
+        <v>0.867278174305956</v>
       </c>
       <c r="S7">
-        <v>0.8177226866231805</v>
+        <v>0.867278174305956</v>
       </c>
       <c r="T7">
-        <v>0.854233929137642</v>
+        <v>0.8934523935069052</v>
       </c>
       <c r="U7">
-        <v>0.854233929137642</v>
+        <v>0.8934523935069052</v>
       </c>
       <c r="V7">
-        <v>0.854233929137642</v>
+        <v>0.8934523935069052</v>
       </c>
       <c r="W7">
-        <v>0.9308405410969096</v>
+        <v>0.9723203326283887</v>
       </c>
       <c r="X7">
-        <v>0.9684972996363115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y7">
-        <v>0.9684972996363115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9684972996363115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9791697199313806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9835003569217303</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9883066900759563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:93">
@@ -5992,103 +5992,103 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.009259736863007455</v>
+        <v>0.01718004339568653</v>
       </c>
       <c r="BJ8">
-        <v>0.2242583826727159</v>
+        <v>0.1938910017917731</v>
       </c>
       <c r="BK8">
-        <v>0.2242583826727159</v>
+        <v>0.1960171275501308</v>
       </c>
       <c r="BL8">
-        <v>0.3252917239372989</v>
+        <v>0.2843588542560993</v>
       </c>
       <c r="BM8">
-        <v>0.3664177176140131</v>
+        <v>0.3262481426514536</v>
       </c>
       <c r="BN8">
-        <v>0.3664177176140131</v>
+        <v>0.3273730842604446</v>
       </c>
       <c r="BO8">
-        <v>0.3664177176140131</v>
+        <v>0.3349890590225749</v>
       </c>
       <c r="BP8">
-        <v>0.3765881365228402</v>
+        <v>0.3528752495480766</v>
       </c>
       <c r="BQ8">
-        <v>0.3802337727004419</v>
+        <v>0.3657020929397757</v>
       </c>
       <c r="BR8">
-        <v>0.3802337727004419</v>
+        <v>0.3688137518067905</v>
       </c>
       <c r="BS8">
-        <v>0.4682320576345727</v>
+        <v>0.4470480346941593</v>
       </c>
       <c r="BT8">
-        <v>0.4850331674467471</v>
+        <v>0.4700756940468817</v>
       </c>
       <c r="BU8">
-        <v>0.5227748899974394</v>
+        <v>0.5093408027374452</v>
       </c>
       <c r="BV8">
-        <v>0.6824524066932216</v>
+        <v>0.6431554981389309</v>
       </c>
       <c r="BW8">
-        <v>0.7986822675818952</v>
+        <v>0.74328067743957</v>
       </c>
       <c r="BX8">
-        <v>0.7986822675818952</v>
+        <v>0.7441799903704029</v>
       </c>
       <c r="BY8">
-        <v>0.8717754859350791</v>
+        <v>0.8108568147197937</v>
       </c>
       <c r="BZ8">
-        <v>0.8933851181914182</v>
+        <v>0.8376130249297399</v>
       </c>
       <c r="CA8">
-        <v>0.8933851181914182</v>
+        <v>0.8427573664254472</v>
       </c>
       <c r="CB8">
-        <v>0.9310344512518899</v>
+        <v>0.8819508358719477</v>
       </c>
       <c r="CC8">
-        <v>0.9610513795127085</v>
+        <v>0.9152261028375672</v>
       </c>
       <c r="CD8">
-        <v>0.9610513795127085</v>
+        <v>0.9228981477470192</v>
       </c>
       <c r="CE8">
-        <v>0.9610513795127085</v>
+        <v>0.9230462937480033</v>
       </c>
       <c r="CF8">
-        <v>0.9610513795127085</v>
+        <v>0.9252319726581277</v>
       </c>
       <c r="CG8">
-        <v>0.9693839618776952</v>
+        <v>0.9416930961072995</v>
       </c>
       <c r="CH8">
-        <v>0.9941018494397922</v>
+        <v>0.9708594620603721</v>
       </c>
       <c r="CI8">
-        <v>0.9999999999999998</v>
+        <v>0.9854329156695958</v>
       </c>
       <c r="CJ8">
-        <v>0.9999999999999998</v>
+        <v>0.9872835319697877</v>
       </c>
       <c r="CK8">
-        <v>0.9999999999999998</v>
+        <v>0.9874194519358733</v>
       </c>
       <c r="CL8">
-        <v>0.9999999999999998</v>
+        <v>0.9884118312495902</v>
       </c>
       <c r="CM8">
-        <v>0.9999999999999998</v>
+        <v>0.9902077904600901</v>
       </c>
       <c r="CN8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="CO8">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -6105,271 +6105,271 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1069619149432662</v>
+        <v>0.1197584319880342</v>
       </c>
       <c r="F9">
-        <v>0.1887480502707731</v>
+        <v>0.2082452337445328</v>
       </c>
       <c r="G9">
-        <v>0.2407166010701432</v>
+        <v>0.2596946729250674</v>
       </c>
       <c r="H9">
-        <v>0.347154343871183</v>
+        <v>0.3788020141560504</v>
       </c>
       <c r="I9">
-        <v>0.3479536390235192</v>
+        <v>0.3788020141560504</v>
       </c>
       <c r="J9">
-        <v>0.3561552801841004</v>
+        <v>0.3788020141560504</v>
       </c>
       <c r="K9">
-        <v>0.3968171404086558</v>
+        <v>0.4162070562138574</v>
       </c>
       <c r="L9">
-        <v>0.4157677586601884</v>
+        <v>0.4266438795626494</v>
       </c>
       <c r="M9">
-        <v>0.4263160274795886</v>
+        <v>0.4266438795626494</v>
       </c>
       <c r="N9">
-        <v>0.4263160274795886</v>
+        <v>0.4266438795626494</v>
       </c>
       <c r="O9">
-        <v>0.4832238543054772</v>
+        <v>0.4842285493445865</v>
       </c>
       <c r="P9">
-        <v>0.4901843090902512</v>
+        <v>0.4842285493445865</v>
       </c>
       <c r="Q9">
-        <v>0.5581025927602974</v>
+        <v>0.5554896549853457</v>
       </c>
       <c r="R9">
-        <v>0.7104872632974495</v>
+        <v>0.7316691249197181</v>
       </c>
       <c r="S9">
-        <v>0.8284950077540664</v>
+        <v>0.8651479302750922</v>
       </c>
       <c r="T9">
-        <v>0.8284950077540664</v>
+        <v>0.8651479302750922</v>
       </c>
       <c r="U9">
-        <v>0.8978490109820352</v>
+        <v>0.9381923884799737</v>
       </c>
       <c r="V9">
-        <v>0.90154521225216</v>
+        <v>0.9381923884799737</v>
       </c>
       <c r="W9">
-        <v>0.90154521225216</v>
+        <v>0.9381923884799737</v>
       </c>
       <c r="X9">
-        <v>0.9472906769127959</v>
+        <v>0.9819119360106912</v>
       </c>
       <c r="Y9">
-        <v>0.968615627839352</v>
+        <v>0.9952979928923946</v>
       </c>
       <c r="Z9">
-        <v>0.968615627839352</v>
+        <v>0.9952979928923946</v>
       </c>
       <c r="AA9">
-        <v>0.968615627839352</v>
+        <v>0.9952979928923946</v>
       </c>
       <c r="AB9">
-        <v>0.968615627839352</v>
+        <v>0.9952979928923946</v>
       </c>
       <c r="AC9">
-        <v>0.9781665461850542</v>
+        <v>0.9952979928923946</v>
       </c>
       <c r="AD9">
-        <v>0.992500249080527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.992500249080527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>0.992500249080527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.992500249080527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.992500249080527</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>0.9930148284801352</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CB9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CK9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CL9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CM9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CN9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="CO9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -6383,274 +6383,274 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1005885819261616</v>
+        <v>0.1139540284563145</v>
       </c>
       <c r="E10">
-        <v>0.1889977852093535</v>
+        <v>0.2088246593787791</v>
       </c>
       <c r="F10">
-        <v>0.2429878923116479</v>
+        <v>0.2497653391575519</v>
       </c>
       <c r="G10">
-        <v>0.4201035970027731</v>
+        <v>0.4836267576914803</v>
       </c>
       <c r="H10">
-        <v>0.4201035970027731</v>
+        <v>0.4836267576914803</v>
       </c>
       <c r="I10">
-        <v>0.4201035970027731</v>
+        <v>0.4836267576914803</v>
       </c>
       <c r="J10">
-        <v>0.4552756622045255</v>
+        <v>0.495082175132673</v>
       </c>
       <c r="K10">
-        <v>0.4586233076812391</v>
+        <v>0.495082175132673</v>
       </c>
       <c r="L10">
-        <v>0.4586233076812391</v>
+        <v>0.495082175132673</v>
       </c>
       <c r="M10">
-        <v>0.4864843127700276</v>
+        <v>0.495082175132673</v>
       </c>
       <c r="N10">
-        <v>0.5218281023680833</v>
+        <v>0.5068066608914686</v>
       </c>
       <c r="O10">
-        <v>0.5218281023680833</v>
+        <v>0.5068066608914686</v>
       </c>
       <c r="P10">
-        <v>0.633780336583322</v>
+        <v>0.6385659567941711</v>
       </c>
       <c r="Q10">
-        <v>0.8499716523947601</v>
+        <v>0.9336534397068017</v>
       </c>
       <c r="R10">
-        <v>0.9078622961973284</v>
+        <v>0.9807057196442299</v>
       </c>
       <c r="S10">
-        <v>0.9078622961973284</v>
+        <v>0.9807057196442299</v>
       </c>
       <c r="T10">
-        <v>0.9250972884951897</v>
+        <v>0.9807057196442299</v>
       </c>
       <c r="U10">
-        <v>0.9250972884951897</v>
+        <v>0.9807057196442299</v>
       </c>
       <c r="V10">
-        <v>0.9255441175972777</v>
+        <v>0.9807057196442299</v>
       </c>
       <c r="W10">
-        <v>0.9657190906616173</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9657190906616173</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9657190906616173</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9657190906616173</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9657190906616173</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.977435824550719</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -6667,271 +6667,271 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01352648852968035</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2016933678624975</v>
+        <v>0.2825020125775176</v>
       </c>
       <c r="G11">
-        <v>0.2016933678624975</v>
+        <v>0.2825020125775176</v>
       </c>
       <c r="H11">
-        <v>0.322340405422012</v>
+        <v>0.4432362719934146</v>
       </c>
       <c r="I11">
-        <v>0.3657245199801457</v>
+        <v>0.4646317490678902</v>
       </c>
       <c r="J11">
-        <v>0.3657245199801457</v>
+        <v>0.4646317490678902</v>
       </c>
       <c r="K11">
-        <v>0.3972449088044597</v>
+        <v>0.4646317490678902</v>
       </c>
       <c r="L11">
-        <v>0.4365292829001872</v>
+        <v>0.4786336041855919</v>
       </c>
       <c r="M11">
-        <v>0.4531302860031532</v>
+        <v>0.4786336041855919</v>
       </c>
       <c r="N11">
-        <v>0.4531302860031532</v>
+        <v>0.4786336041855919</v>
       </c>
       <c r="O11">
-        <v>0.5122662625598802</v>
+        <v>0.5284365655388447</v>
       </c>
       <c r="P11">
-        <v>0.5125996075804403</v>
+        <v>0.5284365655388447</v>
       </c>
       <c r="Q11">
-        <v>0.5478821446576281</v>
+        <v>0.5352213613526654</v>
       </c>
       <c r="R11">
-        <v>0.7042783740566718</v>
+        <v>0.7604270213719394</v>
       </c>
       <c r="S11">
-        <v>0.8227831584840714</v>
+        <v>0.9172978631057142</v>
       </c>
       <c r="T11">
-        <v>0.8227831584840714</v>
+        <v>0.9172978631057142</v>
       </c>
       <c r="U11">
-        <v>0.8908813647529861</v>
+        <v>0.9832636374441556</v>
       </c>
       <c r="V11">
-        <v>0.9130098602977242</v>
+        <v>0.9832636374441556</v>
       </c>
       <c r="W11">
-        <v>0.9130098602977242</v>
+        <v>0.9832636374441556</v>
       </c>
       <c r="X11">
-        <v>0.9538105102937409</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9822114641899824</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9822114641899824</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.9822114641899824</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.9822114641899824</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9843110901055632</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9902635615193004</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7146181034418561</v>
+        <v>0.6514514577914998</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.542785127858793</v>
+        <v>0.511680896939597</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6279558926300393</v>
+        <v>0.5827280293458938</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -7122,16 +7122,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5076866343623256</v>
+        <v>0.6780863475896054</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -7166,10 +7166,10 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
-        <v>0.6230458451196171</v>
+        <v>0.6117453742970883</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -7204,16 +7204,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5021946227993869</v>
+        <v>0.5030773936237842</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5227748899974394</v>
+        <v>0.5093408027374452</v>
       </c>
       <c r="G8">
         <v>13</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5581025927602974</v>
+        <v>0.5554896549853457</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5218281023680833</v>
+        <v>0.5068066608914686</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -7374,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5122662625598802</v>
+        <v>0.5284365655388447</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -7463,16 +7463,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7146181034418561</v>
+        <v>0.7163039735158295</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7915514031625519</v>
+        <v>0.715019326765794</v>
       </c>
       <c r="G3">
         <v>14</v>
@@ -7545,16 +7545,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7018565747486802</v>
+        <v>0.7442532906760289</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -7586,16 +7586,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7240526459382225</v>
+        <v>0.7509480933688992</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -7630,10 +7630,10 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
-        <v>0.7958748483292635</v>
+        <v>0.7900763408037164</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7342593474830531</v>
+        <v>0.7793990584166142</v>
       </c>
       <c r="G7">
         <v>14</v>
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7986822675818952</v>
+        <v>0.74328067743957</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -7756,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7104872632974495</v>
+        <v>0.7316691249197181</v>
       </c>
       <c r="G9">
         <v>15</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8499716523947601</v>
+        <v>0.9336534397068017</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7042783740566718</v>
+        <v>0.7604270213719394</v>
       </c>
       <c r="G11">
         <v>14</v>
@@ -7927,16 +7927,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8167625379588953</v>
+        <v>0.8440924496242955</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -7968,16 +7968,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8058640249470271</v>
+        <v>0.8282304230845131</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -8009,16 +8009,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8088022832814559</v>
+        <v>0.8004351625454382</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -8050,16 +8050,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8012103121615757</v>
+        <v>0.8317950199505179</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -8094,10 +8094,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
-        <v>0.8542605296851528</v>
+        <v>0.848509881907999</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8177226866231805</v>
+        <v>0.867278174305956</v>
       </c>
       <c r="G7">
         <v>15</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8717754859350791</v>
+        <v>0.8108568147197937</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8284950077540664</v>
+        <v>0.8651479302750922</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8499716523947601</v>
+        <v>0.9336534397068017</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -8302,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8227831584840714</v>
+        <v>0.9172978631057142</v>
       </c>
       <c r="G11">
         <v>15</v>
@@ -8391,16 +8391,16 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9230651817202483</v>
+        <v>0.9156612200822234</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -8432,16 +8432,16 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.919031661357207</v>
+        <v>0.9399799765410801</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9766704828872251</v>
+        <v>0.957239720670958</v>
       </c>
       <c r="G4">
         <v>26</v>
@@ -8514,16 +8514,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9225232205702055</v>
+        <v>0.9199993521633606</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>27</v>
@@ -8558,10 +8558,10 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0.02697069126213737</v>
+        <v>0.02840669024470949</v>
       </c>
       <c r="F6">
-        <v>0.9124287263134946</v>
+        <v>0.9067355483174684</v>
       </c>
       <c r="G6">
         <v>18</v>
@@ -8602,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9308405410969096</v>
+        <v>0.9723203326283887</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -8637,16 +8637,16 @@
         <v>59</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9310344512518899</v>
+        <v>0.9152261028375672</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>27</v>
@@ -8678,16 +8678,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.90154521225216</v>
+        <v>0.9381923884799737</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -8719,16 +8719,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9078622961973284</v>
+        <v>0.9336534397068017</v>
       </c>
       <c r="G10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>27</v>
@@ -8760,16 +8760,16 @@
         <v>3</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9130098602977242</v>
+        <v>0.9172978631057142</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>27</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
@@ -19,7 +19,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
   <si>
     <t>Signal_Value_31</t>
   </si>
@@ -733,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:107">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1019,10 +1061,52 @@
       <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:107">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1205,105 +1289,147 @@
         <v>0</v>
       </c>
       <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
         <v>0.2093325127113981</v>
       </c>
-      <c r="BK2">
+      <c r="BY2">
         <v>0.003827555897907408</v>
       </c>
-      <c r="BL2">
+      <c r="BZ2">
         <v>0.1385404450187036</v>
       </c>
-      <c r="BM2">
+      <c r="CA2">
         <v>0.04978975254671478</v>
       </c>
-      <c r="BN2">
+      <c r="CB2">
         <v>0.0002129526333741349</v>
       </c>
-      <c r="BO2">
+      <c r="CC2">
         <v>0.0002459355492339376</v>
       </c>
-      <c r="BP2">
+      <c r="CD2">
         <v>0.007033681965074401</v>
       </c>
-      <c r="BQ2">
+      <c r="CE2">
         <v>0.0004166460702352094</v>
       </c>
-      <c r="BR2">
+      <c r="CF2">
         <v>0.002585506484429488</v>
       </c>
-      <c r="BS2">
+      <c r="CG2">
         <v>0.01427175122325744</v>
       </c>
-      <c r="BT2">
+      <c r="CH2">
         <v>0.00119192052119825</v>
       </c>
-      <c r="BU2">
+      <c r="CI2">
         <v>0.02426522445547619</v>
       </c>
-      <c r="BV2">
+      <c r="CJ2">
         <v>0.1997375727144969</v>
       </c>
-      <c r="BW2">
+      <c r="CK2">
         <v>0.06485251572432971</v>
       </c>
-      <c r="BX2">
+      <c r="CL2">
         <v>0.001300101142083561</v>
       </c>
-      <c r="BY2">
+      <c r="CM2">
         <v>0.01784102518497322</v>
       </c>
-      <c r="BZ2">
+      <c r="CN2">
         <v>0.02962845082419112</v>
       </c>
-      <c r="CA2">
+      <c r="CO2">
         <v>0.0203011888824589</v>
       </c>
-      <c r="CB2">
+      <c r="CP2">
         <v>0.05871771007475918</v>
       </c>
-      <c r="CC2">
+      <c r="CQ2">
         <v>0.03665434797343926</v>
       </c>
-      <c r="CD2">
+      <c r="CR2">
         <v>0.0009744988580971247</v>
       </c>
-      <c r="CE2">
+      <c r="CS2">
         <v>0.005474622828939874</v>
       </c>
-      <c r="CF2">
+      <c r="CT2">
         <v>0.002139501168460573</v>
       </c>
-      <c r="CG2">
+      <c r="CU2">
         <v>0.001061084594973186</v>
       </c>
-      <c r="CH2">
+      <c r="CV2">
         <v>0.02526471503401784</v>
       </c>
-      <c r="CI2">
+      <c r="CW2">
         <v>0.02993666170807171</v>
       </c>
-      <c r="CJ2">
+      <c r="CX2">
         <v>0.0001881774046588499</v>
       </c>
-      <c r="CK2">
+      <c r="CY2">
         <v>0.00363555955156626</v>
       </c>
-      <c r="CL2">
+      <c r="CZ2">
         <v>0.001077647463509458</v>
       </c>
-      <c r="CM2">
+      <c r="DA2">
         <v>0.002697484392717032</v>
       </c>
-      <c r="CN2">
+      <c r="DB2">
         <v>0.0207421573567061</v>
       </c>
-      <c r="CO2">
+      <c r="DC2">
         <v>0.02606109204054713</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:107">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1486,105 +1612,147 @@
         <v>0</v>
       </c>
       <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
         <v>0.03711687559767173</v>
       </c>
-      <c r="BK3">
+      <c r="BY3">
         <v>0.1243133832865542</v>
       </c>
-      <c r="BL3">
+      <c r="BZ3">
         <v>0.0444230824831533</v>
       </c>
-      <c r="BM3">
+      <c r="CA3">
         <v>0.1500890168129616</v>
       </c>
-      <c r="BN3">
+      <c r="CB3">
         <v>0.02751267635510591</v>
       </c>
-      <c r="BO3">
+      <c r="CC3">
         <v>0.0002471269617855058</v>
       </c>
-      <c r="BP3">
+      <c r="CD3">
         <v>0.01020773892923721</v>
       </c>
-      <c r="BQ3">
+      <c r="CE3">
         <v>0.00037419351219092</v>
       </c>
-      <c r="BR3">
+      <c r="CF3">
         <v>0.004249200646181578</v>
       </c>
-      <c r="BS3">
+      <c r="CG3">
         <v>0.00469588841729566</v>
       </c>
-      <c r="BT3">
+      <c r="CH3">
         <v>0.01171147189842502</v>
       </c>
-      <c r="BU3">
+      <c r="CI3">
         <v>0.0002678193797557961</v>
       </c>
-      <c r="BV3">
+      <c r="CJ3">
         <v>0.09647242265927848</v>
       </c>
-      <c r="BW3">
+      <c r="CK3">
         <v>0.2033384298261971</v>
       </c>
-      <c r="BX3">
+      <c r="CL3">
         <v>0.004938861686870456</v>
       </c>
-      <c r="BY3">
+      <c r="CM3">
         <v>0.02112361319526844</v>
       </c>
-      <c r="BZ3">
+      <c r="CN3">
         <v>0.0135764644355328</v>
       </c>
-      <c r="CA3">
+      <c r="CO3">
         <v>0.01655837108091881</v>
       </c>
-      <c r="CB3">
+      <c r="CP3">
         <v>0.05701378592012855</v>
       </c>
-      <c r="CC3">
+      <c r="CQ3">
         <v>0.04080402851152778</v>
       </c>
-      <c r="CD3">
+      <c r="CR3">
         <v>7.774337462435032E-05</v>
       </c>
-      <c r="CE3">
+      <c r="CS3">
         <v>0.004905337411745176</v>
       </c>
-      <c r="CF3">
+      <c r="CT3">
         <v>0.008685056241430442</v>
       </c>
-      <c r="CG3">
+      <c r="CU3">
         <v>0.0004069603968339143</v>
       </c>
-      <c r="CH3">
+      <c r="CV3">
         <v>0.004016262494010147</v>
       </c>
-      <c r="CI3">
+      <c r="CW3">
         <v>0.05285416502639524</v>
       </c>
-      <c r="CJ3">
+      <c r="CX3">
         <v>0.01203081067549751</v>
       </c>
-      <c r="CK3">
+      <c r="CY3">
         <v>0.007456988153272313</v>
       </c>
-      <c r="CL3">
+      <c r="CZ3">
         <v>0.003276479072434141</v>
       </c>
-      <c r="CM3">
+      <c r="DA3">
         <v>0.0007876887986622826</v>
       </c>
-      <c r="CN3">
+      <c r="DB3">
         <v>0.008425324757325608</v>
       </c>
-      <c r="CO3">
+      <c r="DC3">
         <v>0.02804273200172791</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:107">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1593,100 +1761,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04126560699817623</v>
+        <v>0.003686999050341516</v>
       </c>
       <c r="E4">
-        <v>0.07908738447869658</v>
+        <v>0.00348397903110656</v>
       </c>
       <c r="F4">
-        <v>0.01551733995720007</v>
+        <v>0.001692306264214565</v>
       </c>
       <c r="G4">
-        <v>0.10538402590035</v>
+        <v>0.001497412355253628</v>
       </c>
       <c r="H4">
-        <v>0.02901083674087628</v>
+        <v>0.0007916376106793054</v>
       </c>
       <c r="I4">
-        <v>0.004755954425928269</v>
+        <v>0.0009771319843255688</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0005608913752496488</v>
       </c>
       <c r="K4">
-        <v>0.005805511269069542</v>
+        <v>0.0002474392807973023</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0002951174610745673</v>
       </c>
       <c r="M4">
-        <v>0.0007838642273714046</v>
+        <v>0.0002628985798876942</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09601364718337568</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.2051038581648498</v>
+        <v>1.538450741771461E-05</v>
       </c>
       <c r="Q4">
-        <v>0.0688256227958662</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01176000667044331</v>
+        <v>0.05482927878743062</v>
       </c>
       <c r="S4">
-        <v>0.001577991472250421</v>
+        <v>0.1034189553823486</v>
       </c>
       <c r="T4">
-        <v>0.02112302325193085</v>
+        <v>0.02175045352478977</v>
       </c>
       <c r="U4">
-        <v>0.05823861713964418</v>
+        <v>0.1372022777782553</v>
       </c>
       <c r="V4">
-        <v>0.0314096890751934</v>
+        <v>0.03908556278006142</v>
       </c>
       <c r="W4">
-        <v>0.02477218279421596</v>
+        <v>0.007925290417449427</v>
       </c>
       <c r="X4">
-        <v>0.02576818951122364</v>
+        <v>0.0009297265934888267</v>
       </c>
       <c r="Y4">
-        <v>0.02132473434102239</v>
+        <v>0.009273657177908614</v>
       </c>
       <c r="Z4">
-        <v>0.0007292941005787399</v>
+        <v>0.0003711309783286399</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.002822342036635619</v>
       </c>
       <c r="AB4">
-        <v>0.0338995136496337</v>
+        <v>0.001815310854086929</v>
       </c>
       <c r="AC4">
-        <v>0.07508282652306114</v>
+        <v>0.1251641425619984</v>
       </c>
       <c r="AD4">
-        <v>0.005795953453927211</v>
+        <v>0.2653124492879643</v>
       </c>
       <c r="AE4">
-        <v>0.0001082050119458137</v>
+        <v>0.09023565954915683</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.01692340357038559</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.003842558128376894</v>
       </c>
       <c r="AH4">
-        <v>0.01769712445909535</v>
+        <v>0.02895208064357837</v>
       </c>
       <c r="AI4">
-        <v>0.01915899640407388</v>
+        <v>0.07663452244740797</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1862,10 +2030,52 @@
       <c r="CO4">
         <v>0</v>
       </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:107">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1877,139 +2087,139 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2533371285205347</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002859709115747184</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1045637220401328</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.03651914971805245</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.007286915013325898</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.008058355154187161</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03725725784695155</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.007918393339885241</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.03410945226861031</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.1887500027763505</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.07286174577929382</v>
+        <v>0.003069473845809441</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2460769064294938</v>
       </c>
       <c r="T5">
-        <v>0.03862302674052257</v>
+        <v>0.002088352151665666</v>
       </c>
       <c r="U5">
-        <v>0.04222389984109609</v>
+        <v>0.102631570296182</v>
       </c>
       <c r="V5">
-        <v>0.006411779293954121</v>
+        <v>0.03702390035233323</v>
       </c>
       <c r="W5">
-        <v>0.04603216470082973</v>
+        <v>0.001812622809267441</v>
       </c>
       <c r="X5">
-        <v>0.03576038821805894</v>
+        <v>0.008838569167490441</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2.099578575546529E-05</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.009582381471923697</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.0008852257952951441</v>
       </c>
       <c r="AB5">
-        <v>0.004387708282312727</v>
+        <v>0.03773557437497926</v>
       </c>
       <c r="AC5">
-        <v>0.03603652017675661</v>
+        <v>0.009447432155555038</v>
       </c>
       <c r="AD5">
-        <v>0.01019089008386375</v>
+        <v>0.03470050218062876</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.183802860405822</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.07206494721206672</v>
       </c>
       <c r="AG5">
-        <v>0.003593959791043555</v>
+        <v>0.0002157988898300926</v>
       </c>
       <c r="AH5">
-        <v>0.0001340470621467218</v>
+        <v>0.03905243054338678</v>
       </c>
       <c r="AI5">
-        <v>0.01055455048733434</v>
+        <v>0.04252434440558105</v>
       </c>
       <c r="AJ5">
-        <v>0.01510297195318176</v>
+        <v>0.007994774967993579</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.04619622263847701</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.03629231262448267</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.001654824112756452</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>0.000757241340864854</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>0.000858915320296349</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.006043192669171647</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.03655855537962019</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>0.01163854323524115</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>0.000427879687697427</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>0.0007947298488602905</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>0.005277870950532272</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.001941869200421713</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>0.01198917975051841</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -2143,10 +2353,52 @@
       <c r="CO5">
         <v>0</v>
       </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:107">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2158,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004636128217272423</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1353170730801269</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.02589181054395379</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2185,115 +2437,115 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.04563132756927242</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1858543154905681</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1901805445467304</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01551310972387198</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.01137940676885543</v>
+        <v>0.03083962532580452</v>
       </c>
       <c r="T6">
-        <v>0.009277109024719723</v>
+        <v>0.007875727558260428</v>
       </c>
       <c r="U6">
-        <v>0.02741167739447727</v>
+        <v>5.087125059176251E-06</v>
       </c>
       <c r="V6">
-        <v>0.1147496635947037</v>
+        <v>0.003089784843653689</v>
       </c>
       <c r="W6">
-        <v>0.05843354110428264</v>
+        <v>0.008250511010684979</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.1172657130034692</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.02880660282834614</v>
       </c>
       <c r="Z6">
-        <v>0.05822566640946931</v>
+        <v>0.005914635956972384</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.0003570478126035397</v>
       </c>
       <c r="AB6">
-        <v>0.02061942163369719</v>
+        <v>0.04476397931413845</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.001120091919958819</v>
       </c>
       <c r="AD6">
-        <v>0.06570156600483902</v>
+        <v>0.1581198941195922</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.1616172069324847</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.02041648688949006</v>
       </c>
       <c r="AG6">
-        <v>0.001471384423345111</v>
+        <v>0.01707481169809482</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.01537531942858404</v>
       </c>
       <c r="AI6">
-        <v>0.0002080477650089858</v>
+        <v>0.03003525941153258</v>
       </c>
       <c r="AJ6">
-        <v>0.005264031855641385</v>
+        <v>0.1006390703112802</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>0.05511325690627176</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.001379660522014191</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.0008674465294280203</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.05494521151981419</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.005492471377160349</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.02454441674179863</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.003639817349044472</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.06098871016571742</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.004953154334068998</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.004374839689054454</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>0.00906519106785556</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.002893897630893247</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.008043912854233871</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>0.01213115782263477</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -2424,10 +2676,52 @@
       <c r="CO6">
         <v>0</v>
       </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:107">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2439,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2146672358136876</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.261608316902376</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2454,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02680184090772061</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01991604017088421</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2466,112 +2760,112 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.01685155281098787</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.04205198170565482</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1975020901053031</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.08787911588934186</v>
+        <v>0.01067015170770932</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.1523434922547687</v>
       </c>
       <c r="T7">
-        <v>0.02617421920094923</v>
+        <v>0.01601011327749935</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.1805989808039181</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.00169472182586338</v>
       </c>
       <c r="W7">
-        <v>0.07886793912148345</v>
+        <v>1.109072473601225E-05</v>
       </c>
       <c r="X7">
-        <v>0.02767966737161117</v>
+        <v>0.03926070013675478</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.03511589436409246</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.0006542005124345413</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.005819420332261303</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.03327127158382526</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.02312772894605261</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.04844029653068577</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.1420111870168176</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.07602526123827391</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>3.168224626595329E-05</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.03888291254563878</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.00527915461048318</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>9.652046699225391E-05</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>0.07060111684122593</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.03978909477580745</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>3.765507860336658E-05</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>2.325545289588385E-05</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>0.01844262097929665</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.01342583272562246</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.01380214122002913</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>0.01925021512953004</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>0.004017690569392296</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>4.415726855391863E-05</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>4.932376621674246E-07</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>0.001647030468652627</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>0.009573915127654934</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -2705,10 +2999,52 @@
       <c r="CO7">
         <v>0</v>
       </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+      <c r="DB7">
+        <v>0</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:107">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2888,108 +3224,150 @@
         <v>0</v>
       </c>
       <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
         <v>0.01718004339568653</v>
       </c>
-      <c r="BJ8">
+      <c r="BX8">
         <v>0.1767109583960866</v>
       </c>
-      <c r="BK8">
+      <c r="BY8">
         <v>0.002126125758357715</v>
       </c>
-      <c r="BL8">
+      <c r="BZ8">
         <v>0.0883417267059685</v>
       </c>
-      <c r="BM8">
+      <c r="CA8">
         <v>0.04188928839535432</v>
       </c>
-      <c r="BN8">
+      <c r="CB8">
         <v>0.001124941608991041</v>
       </c>
-      <c r="BO8">
+      <c r="CC8">
         <v>0.007615974762130242</v>
       </c>
-      <c r="BP8">
+      <c r="CD8">
         <v>0.0178861905255018</v>
       </c>
-      <c r="BQ8">
+      <c r="CE8">
         <v>0.01282684339169905</v>
       </c>
-      <c r="BR8">
+      <c r="CF8">
         <v>0.003111658867014859</v>
       </c>
-      <c r="BS8">
+      <c r="CG8">
         <v>0.07823428288736871</v>
       </c>
-      <c r="BT8">
+      <c r="CH8">
         <v>0.02302765935272242</v>
       </c>
-      <c r="BU8">
+      <c r="CI8">
         <v>0.03926510869056353</v>
       </c>
-      <c r="BV8">
+      <c r="CJ8">
         <v>0.1338146954014857</v>
       </c>
-      <c r="BW8">
+      <c r="CK8">
         <v>0.1001251793006392</v>
       </c>
-      <c r="BX8">
+      <c r="CL8">
         <v>0.0008993129308328461</v>
       </c>
-      <c r="BY8">
+      <c r="CM8">
         <v>0.06667682434939075</v>
       </c>
-      <c r="BZ8">
+      <c r="CN8">
         <v>0.02675621020994628</v>
       </c>
-      <c r="CA8">
+      <c r="CO8">
         <v>0.00514434149570731</v>
       </c>
-      <c r="CB8">
+      <c r="CP8">
         <v>0.03919346944650045</v>
       </c>
-      <c r="CC8">
+      <c r="CQ8">
         <v>0.03327526696561958</v>
       </c>
-      <c r="CD8">
+      <c r="CR8">
         <v>0.007672044909451907</v>
       </c>
-      <c r="CE8">
+      <c r="CS8">
         <v>0.0001481460009841318</v>
       </c>
-      <c r="CF8">
+      <c r="CT8">
         <v>0.002185678910124431</v>
       </c>
-      <c r="CG8">
+      <c r="CU8">
         <v>0.01646112344917168</v>
       </c>
-      <c r="CH8">
+      <c r="CV8">
         <v>0.0291663659530726</v>
       </c>
-      <c r="CI8">
+      <c r="CW8">
         <v>0.01457345360922369</v>
       </c>
-      <c r="CJ8">
+      <c r="CX8">
         <v>0.001850616300191951</v>
       </c>
-      <c r="CK8">
+      <c r="CY8">
         <v>0.0001359199660855983</v>
       </c>
-      <c r="CL8">
+      <c r="CZ8">
         <v>0.000992379313716903</v>
       </c>
-      <c r="CM8">
+      <c r="DA8">
         <v>0.001795959210499964</v>
       </c>
-      <c r="CN8">
+      <c r="DB8">
         <v>0.009792209539909539</v>
       </c>
-      <c r="CO8">
+      <c r="DC8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:107">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3001,16 +3379,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1197584319880342</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08848680175649863</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.05144943918053463</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.119107341230983</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3019,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.03740504205780697</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01043682334879206</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3031,112 +3409,112 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0575846697819371</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.07126110564075924</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.1761794699343724</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.1334788053553741</v>
+        <v>0.0905197514479576</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.07156770184932498</v>
       </c>
       <c r="U9">
-        <v>0.07304445820488151</v>
+        <v>0.04912135263935154</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.09012516043273124</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.01060170058692201</v>
       </c>
       <c r="X9">
-        <v>0.04371954753071755</v>
+        <v>0.01617410512952783</v>
       </c>
       <c r="Y9">
-        <v>0.01338605688170346</v>
+        <v>0.04060980051104544</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.02426581669006106</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.01794062058439063</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.007761941288511139</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.05283958522895194</v>
       </c>
       <c r="AD9">
-        <v>0.004702007107605172</v>
+        <v>0.01523975369674361</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.06112813586765611</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.1247135015546283</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.09883493024242161</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.0003432975490259585</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.06220892973727058</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.01278245960471013</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>0.004950425347192449</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.04443668193767332</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.02605318817596849</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>0.001563961849025333</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>0.0002798535212179727</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.002312650546098856</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.01718982613300802</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>0.02079025366257252</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.004372567664529438</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.001046190090620562</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>6.985566916604772E-05</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>0.004510270874773688</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>0.01038736970424162</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>0.01525836018268003</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -3267,10 +3645,52 @@
       <c r="CO9">
         <v>0</v>
       </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DB9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:107">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3279,16 +3699,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1139540284563145</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.09487063092246464</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.04094067977877283</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2338614185339284</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3297,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01145541744119264</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3309,112 +3729,112 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01172448575879563</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.1317592959027024</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2950874829126306</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.04705227993742821</v>
+        <v>0.0883799872985708</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.07888965027362693</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.05206982371053482</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.1480109592782441</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.004588398397651534</v>
       </c>
       <c r="W10">
-        <v>0.0192942803557702</v>
+        <v>0.001496007833519459</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.03740655023650218</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.01260853075886423</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.009012501734871978</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.03170967303811547</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.03754036021516335</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>0.007189581242195071</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.09723469928503714</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.178459205437458</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.05510917480954423</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.002452102961558825</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.02342973975305632</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.00346311651083698</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>0.01034817529659584</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>0.04130488389641346</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.007069290736983159</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>4.695528747294591E-06</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.0002259520462794016</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>0.002900981652844329</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.01912983795797676</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>0.02758231154322871</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.008901437683633644</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>0.002613013330476052</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.0007905388065683953</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>0.0001286706439618635</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>0.003002287183247722</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.006947860917692008</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -3548,10 +3968,52 @@
       <c r="CO10">
         <v>0</v>
       </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="CZ10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DB10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:107">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3566,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2825020125775176</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.160734259415897</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02139547707447558</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3584,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01400185511770172</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3593,112 +4055,112 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.04980296135325276</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.006784795813820794</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.225205660019274</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1568708417337747</v>
+        <v>0.02042922591826849</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.155080882639383</v>
       </c>
       <c r="U11">
-        <v>0.06596577433844142</v>
+        <v>0.009764500869201668</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.103021570847237</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.04345012498979359</v>
       </c>
       <c r="X11">
-        <v>0.01673636255584453</v>
+        <v>0.004798224856475066</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.03430292646603123</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.04028913317769975</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.02279974558443658</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.0009237332397648871</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>0.05559516374514007</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.01025701648439827</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.03720362711580778</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.1305849992471413</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.1013698456533761</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.002417874011265878</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.06250524378510985</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.02706156618261113</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>0.002314663926215371</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.04145821589150552</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>0.03189777219921471</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>0.0005369794732326884</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.00248497750912661</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.0002946087862294506</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.01161885865421722</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.01458948891352568</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>0.003217709093342514</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.0005616848264590534</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>9.782293458478745E-05</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.004398923525642478</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>0.007165877095422835</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>0.01750701235813911</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -3827,6 +4289,48 @@
         <v>0</v>
       </c>
       <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
         <v>0</v>
       </c>
     </row>
@@ -3837,15 +4341,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CO11"/>
+  <dimension ref="A1:DC11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:93">
+    <row r="1" spans="1:107">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4123,10 +4627,52 @@
       <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="2" spans="1:93">
+    <row r="2" spans="1:107">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4309,105 +4855,147 @@
         <v>0</v>
       </c>
       <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
         <v>0.2093325127113981</v>
       </c>
-      <c r="BK2">
+      <c r="BY2">
         <v>0.2131600686093055</v>
       </c>
-      <c r="BL2">
+      <c r="BZ2">
         <v>0.351700513628009</v>
       </c>
-      <c r="BM2">
+      <c r="CA2">
         <v>0.4014902661747238</v>
       </c>
-      <c r="BN2">
+      <c r="CB2">
         <v>0.401703218808098</v>
       </c>
-      <c r="BO2">
+      <c r="CC2">
         <v>0.4019491543573319</v>
       </c>
-      <c r="BP2">
+      <c r="CD2">
         <v>0.4089828363224063</v>
       </c>
-      <c r="BQ2">
+      <c r="CE2">
         <v>0.4093994823926415</v>
       </c>
-      <c r="BR2">
+      <c r="CF2">
         <v>0.411984988877071</v>
       </c>
-      <c r="BS2">
+      <c r="CG2">
         <v>0.4262567401003284</v>
       </c>
-      <c r="BT2">
+      <c r="CH2">
         <v>0.4274486606215267</v>
       </c>
-      <c r="BU2">
+      <c r="CI2">
         <v>0.4517138850770029</v>
       </c>
-      <c r="BV2">
+      <c r="CJ2">
         <v>0.6514514577914998</v>
       </c>
-      <c r="BW2">
+      <c r="CK2">
         <v>0.7163039735158295</v>
       </c>
-      <c r="BX2">
+      <c r="CL2">
         <v>0.7176040746579131</v>
       </c>
-      <c r="BY2">
+      <c r="CM2">
         <v>0.7354450998428863</v>
       </c>
-      <c r="BZ2">
+      <c r="CN2">
         <v>0.7650735506670774</v>
       </c>
-      <c r="CA2">
+      <c r="CO2">
         <v>0.7853747395495363</v>
       </c>
-      <c r="CB2">
+      <c r="CP2">
         <v>0.8440924496242955</v>
       </c>
-      <c r="CC2">
+      <c r="CQ2">
         <v>0.8807467975977348</v>
       </c>
-      <c r="CD2">
+      <c r="CR2">
         <v>0.8817212964558319</v>
       </c>
-      <c r="CE2">
+      <c r="CS2">
         <v>0.8871959192847717</v>
       </c>
-      <c r="CF2">
+      <c r="CT2">
         <v>0.8893354204532323</v>
       </c>
-      <c r="CG2">
+      <c r="CU2">
         <v>0.8903965050482056</v>
       </c>
-      <c r="CH2">
+      <c r="CV2">
         <v>0.9156612200822234</v>
       </c>
-      <c r="CI2">
+      <c r="CW2">
         <v>0.9455978817902951</v>
       </c>
-      <c r="CJ2">
+      <c r="CX2">
         <v>0.945786059194954</v>
       </c>
-      <c r="CK2">
+      <c r="CY2">
         <v>0.9494216187465202</v>
       </c>
-      <c r="CL2">
+      <c r="CZ2">
         <v>0.9504992662100297</v>
       </c>
-      <c r="CM2">
+      <c r="DA2">
         <v>0.9531967506027467</v>
       </c>
-      <c r="CN2">
+      <c r="DB2">
         <v>0.9739389079594528</v>
       </c>
-      <c r="CO2">
+      <c r="DC2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:93">
+    <row r="3" spans="1:107">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4590,105 +5178,147 @@
         <v>0</v>
       </c>
       <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
         <v>0.03711687559767173</v>
       </c>
-      <c r="BK3">
+      <c r="BY3">
         <v>0.1614302588842259</v>
       </c>
-      <c r="BL3">
+      <c r="BZ3">
         <v>0.2058533413673792</v>
       </c>
-      <c r="BM3">
+      <c r="CA3">
         <v>0.3559423581803408</v>
       </c>
-      <c r="BN3">
+      <c r="CB3">
         <v>0.3834550345354467</v>
       </c>
-      <c r="BO3">
+      <c r="CC3">
         <v>0.3837021614972322</v>
       </c>
-      <c r="BP3">
+      <c r="CD3">
         <v>0.3939099004264695</v>
       </c>
-      <c r="BQ3">
+      <c r="CE3">
         <v>0.3942840939386604</v>
       </c>
-      <c r="BR3">
+      <c r="CF3">
         <v>0.3985332945848419</v>
       </c>
-      <c r="BS3">
+      <c r="CG3">
         <v>0.4032291830021376</v>
       </c>
-      <c r="BT3">
+      <c r="CH3">
         <v>0.4149406549005626</v>
       </c>
-      <c r="BU3">
+      <c r="CI3">
         <v>0.4152084742803184</v>
       </c>
-      <c r="BV3">
+      <c r="CJ3">
         <v>0.511680896939597</v>
       </c>
-      <c r="BW3">
+      <c r="CK3">
         <v>0.715019326765794</v>
       </c>
-      <c r="BX3">
+      <c r="CL3">
         <v>0.7199581884526645</v>
       </c>
-      <c r="BY3">
+      <c r="CM3">
         <v>0.7410818016479329</v>
       </c>
-      <c r="BZ3">
+      <c r="CN3">
         <v>0.7546582660834658</v>
       </c>
-      <c r="CA3">
+      <c r="CO3">
         <v>0.7712166371643846</v>
       </c>
-      <c r="CB3">
+      <c r="CP3">
         <v>0.8282304230845131</v>
       </c>
-      <c r="CC3">
+      <c r="CQ3">
         <v>0.8690344515960409</v>
       </c>
-      <c r="CD3">
+      <c r="CR3">
         <v>0.8691121949706652</v>
       </c>
-      <c r="CE3">
+      <c r="CS3">
         <v>0.8740175323824103</v>
       </c>
-      <c r="CF3">
+      <c r="CT3">
         <v>0.8827025886238408</v>
       </c>
-      <c r="CG3">
+      <c r="CU3">
         <v>0.8831095490206747</v>
       </c>
-      <c r="CH3">
+      <c r="CV3">
         <v>0.8871258115146848</v>
       </c>
-      <c r="CI3">
+      <c r="CW3">
         <v>0.9399799765410801</v>
       </c>
-      <c r="CJ3">
+      <c r="CX3">
         <v>0.9520107872165776</v>
       </c>
-      <c r="CK3">
+      <c r="CY3">
         <v>0.95946777536985</v>
       </c>
-      <c r="CL3">
+      <c r="CZ3">
         <v>0.9627442544422841</v>
       </c>
-      <c r="CM3">
+      <c r="DA3">
         <v>0.9635319432409464</v>
       </c>
-      <c r="CN3">
+      <c r="DB3">
         <v>0.971957267998272</v>
       </c>
-      <c r="CO3">
+      <c r="DC3">
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:93">
+    <row r="4" spans="1:107">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4697,97 +5327,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04126560699817623</v>
+        <v>0.003686999050341516</v>
       </c>
       <c r="E4">
-        <v>0.1203529914768728</v>
+        <v>0.007170978081448075</v>
       </c>
       <c r="F4">
-        <v>0.1358703314340729</v>
+        <v>0.00886328434566264</v>
       </c>
       <c r="G4">
-        <v>0.2412543573344229</v>
+        <v>0.01036069670091627</v>
       </c>
       <c r="H4">
-        <v>0.2702651940752991</v>
+        <v>0.01115233431159557</v>
       </c>
       <c r="I4">
-        <v>0.2750211485012274</v>
+        <v>0.01212946629592114</v>
       </c>
       <c r="J4">
-        <v>0.2750211485012274</v>
+        <v>0.01269035767117079</v>
       </c>
       <c r="K4">
-        <v>0.2808266597702969</v>
+        <v>0.01293779695196809</v>
       </c>
       <c r="L4">
-        <v>0.2808266597702969</v>
+        <v>0.01323291441304266</v>
       </c>
       <c r="M4">
-        <v>0.2816105239976683</v>
+        <v>0.01349581299293035</v>
       </c>
       <c r="N4">
-        <v>0.2816105239976683</v>
+        <v>0.01349581299293035</v>
       </c>
       <c r="O4">
-        <v>0.377624171181044</v>
+        <v>0.01349581299293035</v>
       </c>
       <c r="P4">
-        <v>0.5827280293458938</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="Q4">
-        <v>0.6515536521417601</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="R4">
-        <v>0.6633136588122034</v>
+        <v>0.06834047628777869</v>
       </c>
       <c r="S4">
-        <v>0.6648916502844539</v>
+        <v>0.1717594316701272</v>
       </c>
       <c r="T4">
-        <v>0.6860146735363847</v>
+        <v>0.193509885194917</v>
       </c>
       <c r="U4">
-        <v>0.7442532906760289</v>
+        <v>0.3307121629731723</v>
       </c>
       <c r="V4">
-        <v>0.7756629797512222</v>
+        <v>0.3697977257532337</v>
       </c>
       <c r="W4">
-        <v>0.8004351625454382</v>
+        <v>0.3777230161706832</v>
       </c>
       <c r="X4">
-        <v>0.8262033520566618</v>
+        <v>0.378652742764172</v>
       </c>
       <c r="Y4">
-        <v>0.8475280863976843</v>
+        <v>0.3879263999420806</v>
       </c>
       <c r="Z4">
-        <v>0.848257380498263</v>
+        <v>0.3882975309204093</v>
       </c>
       <c r="AA4">
-        <v>0.848257380498263</v>
+        <v>0.3911198729570449</v>
       </c>
       <c r="AB4">
-        <v>0.8821568941478968</v>
+        <v>0.3929351838111318</v>
       </c>
       <c r="AC4">
-        <v>0.957239720670958</v>
+        <v>0.5180993263731302</v>
       </c>
       <c r="AD4">
-        <v>0.9630356741248852</v>
+        <v>0.7834117756610944</v>
       </c>
       <c r="AE4">
-        <v>0.9631438791368311</v>
+        <v>0.8736474352102512</v>
       </c>
       <c r="AF4">
-        <v>0.9631438791368311</v>
+        <v>0.8905708387806368</v>
       </c>
       <c r="AG4">
-        <v>0.9631438791368311</v>
+        <v>0.8944133969090137</v>
       </c>
       <c r="AH4">
-        <v>0.9808410035959264</v>
+        <v>0.923365477552592</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -4966,10 +5596,52 @@
       <c r="CO4">
         <v>1</v>
       </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>1</v>
+      </c>
+      <c r="CS4">
+        <v>1</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>1</v>
+      </c>
+      <c r="CV4">
+        <v>1</v>
+      </c>
+      <c r="CW4">
+        <v>1</v>
+      </c>
+      <c r="CX4">
+        <v>1</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>1</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:93">
+    <row r="5" spans="1:107">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4981,136 +5653,136 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2533371285205347</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2536230994321094</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3581868214722422</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.3947059711902947</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3947059711902947</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4019928862036206</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4019928862036206</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4100512413578078</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4100512413578078</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4473084992047593</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4552268925446446</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.4893363448132549</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.6780863475896054</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.7509480933688992</v>
+        <v>0.003069473845809441</v>
       </c>
       <c r="S5">
-        <v>0.7509480933688992</v>
+        <v>0.2491463802753033</v>
       </c>
       <c r="T5">
-        <v>0.7895711201094218</v>
+        <v>0.2512347324269689</v>
       </c>
       <c r="U5">
-        <v>0.8317950199505179</v>
+        <v>0.3538663027231509</v>
       </c>
       <c r="V5">
-        <v>0.8382067992444719</v>
+        <v>0.3908902030754842</v>
       </c>
       <c r="W5">
-        <v>0.8842389639453017</v>
+        <v>0.3927028258847516</v>
       </c>
       <c r="X5">
-        <v>0.9199993521633606</v>
+        <v>0.401541395052242</v>
       </c>
       <c r="Y5">
-        <v>0.9199993521633606</v>
+        <v>0.4015623908379975</v>
       </c>
       <c r="Z5">
-        <v>0.9199993521633606</v>
+        <v>0.4111447723099212</v>
       </c>
       <c r="AA5">
-        <v>0.9199993521633606</v>
+        <v>0.4120299981052163</v>
       </c>
       <c r="AB5">
-        <v>0.9243870604456733</v>
+        <v>0.4497655724801956</v>
       </c>
       <c r="AC5">
-        <v>0.9604235806224299</v>
+        <v>0.4592130046357507</v>
       </c>
       <c r="AD5">
-        <v>0.9706144707062937</v>
+        <v>0.4939135068163794</v>
       </c>
       <c r="AE5">
-        <v>0.9706144707062937</v>
+        <v>0.6777163672222014</v>
       </c>
       <c r="AF5">
-        <v>0.9706144707062937</v>
+        <v>0.7497813144342681</v>
       </c>
       <c r="AG5">
-        <v>0.9742084304973373</v>
+        <v>0.7499971133240982</v>
       </c>
       <c r="AH5">
-        <v>0.974342477559484</v>
+        <v>0.789049543867485</v>
       </c>
       <c r="AI5">
-        <v>0.9848970280468183</v>
+        <v>0.8315738882730661</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.8395686632410597</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.8857648858795367</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9220571985040193</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9237120226167758</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9244692639576406</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.925328179277937</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9313713719471086</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.9679299273267288</v>
       </c>
       <c r="AR5">
-        <v>1</v>
+        <v>0.9795684705619699</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.9799963502496674</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.9807910800985277</v>
       </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0.9860689510490599</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0.9880108202494816</v>
       </c>
       <c r="AW5">
         <v>1</v>
@@ -5247,10 +5919,52 @@
       <c r="CO5">
         <v>1</v>
       </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
+        <v>1</v>
+      </c>
+      <c r="CS5">
+        <v>1</v>
+      </c>
+      <c r="CT5">
+        <v>1</v>
+      </c>
+      <c r="CU5">
+        <v>1</v>
+      </c>
+      <c r="CV5">
+        <v>1</v>
+      </c>
+      <c r="CW5">
+        <v>1</v>
+      </c>
+      <c r="CX5">
+        <v>1</v>
+      </c>
+      <c r="CY5">
+        <v>1</v>
+      </c>
+      <c r="CZ5">
+        <v>1</v>
+      </c>
+      <c r="DA5">
+        <v>1</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
+      <c r="DC5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:93">
+    <row r="6" spans="1:107">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5262,139 +5976,139 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02840669024470949</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.02840669024470949</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02840669024470949</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02887030306643674</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1641873761465636</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1900791866905174</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1900791866905174</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1900791866905174</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.2357105142597898</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.2357105142597898</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.4215648297503579</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6117453742970883</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.6272584840209603</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.6386378907898157</v>
+        <v>0.03083962532580452</v>
       </c>
       <c r="T6">
-        <v>0.6479149998145354</v>
+        <v>0.03871535288406495</v>
       </c>
       <c r="U6">
-        <v>0.6753266772090126</v>
+        <v>0.03872044000912413</v>
       </c>
       <c r="V6">
-        <v>0.7900763408037164</v>
+        <v>0.04181022485277781</v>
       </c>
       <c r="W6">
-        <v>0.848509881907999</v>
+        <v>0.0500607358634628</v>
       </c>
       <c r="X6">
-        <v>0.848509881907999</v>
+        <v>0.167326448866932</v>
       </c>
       <c r="Y6">
-        <v>0.848509881907999</v>
+        <v>0.1961330516952781</v>
       </c>
       <c r="Z6">
-        <v>0.9067355483174684</v>
+        <v>0.2020476876522505</v>
       </c>
       <c r="AA6">
-        <v>0.9067355483174684</v>
+        <v>0.202404735464854</v>
       </c>
       <c r="AB6">
-        <v>0.9273549699511656</v>
+        <v>0.2471687147789925</v>
       </c>
       <c r="AC6">
-        <v>0.9273549699511656</v>
+        <v>0.2482888066989513</v>
       </c>
       <c r="AD6">
-        <v>0.9930565359560046</v>
+        <v>0.4064087008185435</v>
       </c>
       <c r="AE6">
-        <v>0.9930565359560046</v>
+        <v>0.5680259077510282</v>
       </c>
       <c r="AF6">
-        <v>0.9930565359560046</v>
+        <v>0.5884423946405183</v>
       </c>
       <c r="AG6">
-        <v>0.9945279203793498</v>
+        <v>0.6055172063386131</v>
       </c>
       <c r="AH6">
-        <v>0.9945279203793498</v>
+        <v>0.6208925257671971</v>
       </c>
       <c r="AI6">
-        <v>0.9947359681443587</v>
+        <v>0.6509277851787297</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.75156685549001</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.8066801123962818</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.808059772918296</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.8089272194477241</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.8638724309675383</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.8693649023446987</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.8939093190864973</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.8975491364355418</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9585378466012592</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9634910009353281</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9678658406243826</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9769310316922382</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9798249293231314</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9878688421773653</v>
       </c>
       <c r="AX6">
         <v>1</v>
@@ -5528,10 +6242,52 @@
       <c r="CO6">
         <v>1</v>
       </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
+        <v>1</v>
+      </c>
+      <c r="CS6">
+        <v>1</v>
+      </c>
+      <c r="CT6">
+        <v>1</v>
+      </c>
+      <c r="CU6">
+        <v>1</v>
+      </c>
+      <c r="CV6">
+        <v>1</v>
+      </c>
+      <c r="CW6">
+        <v>1</v>
+      </c>
+      <c r="CX6">
+        <v>1</v>
+      </c>
+      <c r="CY6">
+        <v>1</v>
+      </c>
+      <c r="CZ6">
+        <v>1</v>
+      </c>
+      <c r="DA6">
+        <v>1</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
+      <c r="DC6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:93">
+    <row r="7" spans="1:107">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -5543,276 +6299,318 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2146672358136876</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2146672358136876</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4762755527160636</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.4762755527160636</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4762755527160636</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5030773936237842</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5229934337946684</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5229934337946684</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5229934337946684</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5398449866056563</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5398449866056563</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5818969683113111</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7793990584166142</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.867278174305956</v>
+        <v>0.01067015170770932</v>
       </c>
       <c r="S7">
-        <v>0.867278174305956</v>
+        <v>0.163013643962478</v>
       </c>
       <c r="T7">
-        <v>0.8934523935069052</v>
+        <v>0.1790237572399774</v>
       </c>
       <c r="U7">
-        <v>0.8934523935069052</v>
+        <v>0.3596227380438954</v>
       </c>
       <c r="V7">
-        <v>0.8934523935069052</v>
+        <v>0.3613174598697588</v>
       </c>
       <c r="W7">
-        <v>0.9723203326283887</v>
+        <v>0.3613285505944948</v>
       </c>
       <c r="X7">
-        <v>0.9999999999999999</v>
+        <v>0.4005892507312496</v>
       </c>
       <c r="Y7">
-        <v>0.9999999999999999</v>
+        <v>0.435705145095342</v>
       </c>
       <c r="Z7">
-        <v>0.9999999999999999</v>
+        <v>0.4363593456077766</v>
       </c>
       <c r="AA7">
-        <v>0.9999999999999999</v>
+        <v>0.4421787659400379</v>
       </c>
       <c r="AB7">
-        <v>0.9999999999999999</v>
+        <v>0.4754500375238631</v>
       </c>
       <c r="AC7">
-        <v>0.9999999999999999</v>
+        <v>0.4985777664699157</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999999</v>
+        <v>0.5470180630006014</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999999</v>
+        <v>0.6890292500174191</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999999</v>
+        <v>0.765054511255693</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999999</v>
+        <v>0.7650861935019589</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.8039691060475977</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.809248260658081</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>0.8093447811250732</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999999</v>
+        <v>0.8799458979662992</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999999</v>
+        <v>0.9197349927421067</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999999</v>
+        <v>0.91977264782071</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999999</v>
+        <v>0.9197959032736058</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999999</v>
+        <v>0.9382385242529024</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999999</v>
+        <v>0.9516643569785249</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999999</v>
+        <v>0.965466498198554</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999999</v>
+        <v>0.9847167133280841</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999999</v>
+        <v>0.9887344038974764</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999999</v>
+        <v>0.9887785611660302</v>
       </c>
       <c r="AU7">
-        <v>0.9999999999999999</v>
+        <v>0.9887790544036924</v>
       </c>
       <c r="AV7">
-        <v>0.9999999999999999</v>
+        <v>0.9904260848723451</v>
       </c>
       <c r="AW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BY7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BZ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CA7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CB7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CC7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CD7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CE7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CF7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CG7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CH7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CI7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CK7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CL7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CM7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CN7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="CO7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CR7">
+        <v>1</v>
+      </c>
+      <c r="CS7">
+        <v>1</v>
+      </c>
+      <c r="CT7">
+        <v>1</v>
+      </c>
+      <c r="CU7">
+        <v>1</v>
+      </c>
+      <c r="CV7">
+        <v>1</v>
+      </c>
+      <c r="CW7">
+        <v>1</v>
+      </c>
+      <c r="CX7">
+        <v>1</v>
+      </c>
+      <c r="CY7">
+        <v>1</v>
+      </c>
+      <c r="CZ7">
+        <v>1</v>
+      </c>
+      <c r="DA7">
+        <v>1</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
+      <c r="DC7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:93">
+    <row r="8" spans="1:107">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5992,108 +6790,150 @@
         <v>0</v>
       </c>
       <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
         <v>0.01718004339568653</v>
       </c>
-      <c r="BJ8">
+      <c r="BX8">
         <v>0.1938910017917731</v>
       </c>
-      <c r="BK8">
+      <c r="BY8">
         <v>0.1960171275501308</v>
       </c>
-      <c r="BL8">
+      <c r="BZ8">
         <v>0.2843588542560993</v>
       </c>
-      <c r="BM8">
+      <c r="CA8">
         <v>0.3262481426514536</v>
       </c>
-      <c r="BN8">
+      <c r="CB8">
         <v>0.3273730842604446</v>
       </c>
-      <c r="BO8">
+      <c r="CC8">
         <v>0.3349890590225749</v>
       </c>
-      <c r="BP8">
+      <c r="CD8">
         <v>0.3528752495480766</v>
       </c>
-      <c r="BQ8">
+      <c r="CE8">
         <v>0.3657020929397757</v>
       </c>
-      <c r="BR8">
+      <c r="CF8">
         <v>0.3688137518067905</v>
       </c>
-      <c r="BS8">
+      <c r="CG8">
         <v>0.4470480346941593</v>
       </c>
-      <c r="BT8">
+      <c r="CH8">
         <v>0.4700756940468817</v>
       </c>
-      <c r="BU8">
+      <c r="CI8">
         <v>0.5093408027374452</v>
       </c>
-      <c r="BV8">
+      <c r="CJ8">
         <v>0.6431554981389309</v>
       </c>
-      <c r="BW8">
+      <c r="CK8">
         <v>0.74328067743957</v>
       </c>
-      <c r="BX8">
+      <c r="CL8">
         <v>0.7441799903704029</v>
       </c>
-      <c r="BY8">
+      <c r="CM8">
         <v>0.8108568147197937</v>
       </c>
-      <c r="BZ8">
+      <c r="CN8">
         <v>0.8376130249297399</v>
       </c>
-      <c r="CA8">
+      <c r="CO8">
         <v>0.8427573664254472</v>
       </c>
-      <c r="CB8">
+      <c r="CP8">
         <v>0.8819508358719477</v>
       </c>
-      <c r="CC8">
+      <c r="CQ8">
         <v>0.9152261028375672</v>
       </c>
-      <c r="CD8">
+      <c r="CR8">
         <v>0.9228981477470192</v>
       </c>
-      <c r="CE8">
+      <c r="CS8">
         <v>0.9230462937480033</v>
       </c>
-      <c r="CF8">
+      <c r="CT8">
         <v>0.9252319726581277</v>
       </c>
-      <c r="CG8">
+      <c r="CU8">
         <v>0.9416930961072995</v>
       </c>
-      <c r="CH8">
+      <c r="CV8">
         <v>0.9708594620603721</v>
       </c>
-      <c r="CI8">
+      <c r="CW8">
         <v>0.9854329156695958</v>
       </c>
-      <c r="CJ8">
+      <c r="CX8">
         <v>0.9872835319697877</v>
       </c>
-      <c r="CK8">
+      <c r="CY8">
         <v>0.9874194519358733</v>
       </c>
-      <c r="CL8">
+      <c r="CZ8">
         <v>0.9884118312495902</v>
       </c>
-      <c r="CM8">
+      <c r="DA8">
         <v>0.9902077904600901</v>
       </c>
-      <c r="CN8">
+      <c r="DB8">
         <v>0.9999999999999997</v>
       </c>
-      <c r="CO8">
+      <c r="DC8">
         <v>0.9999999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:93">
+    <row r="9" spans="1:107">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6105,276 +6945,318 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1197584319880342</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2082452337445328</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.2596946729250674</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3788020141560504</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3788020141560504</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3788020141560504</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4162070562138574</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4266438795626494</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4266438795626494</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4266438795626494</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.4842285493445865</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.4842285493445865</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.5554896549853457</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.7316691249197181</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.8651479302750922</v>
+        <v>0.0905197514479576</v>
       </c>
       <c r="T9">
-        <v>0.8651479302750922</v>
+        <v>0.1620874532972826</v>
       </c>
       <c r="U9">
-        <v>0.9381923884799737</v>
+        <v>0.2112088059366341</v>
       </c>
       <c r="V9">
-        <v>0.9381923884799737</v>
+        <v>0.3013339663693654</v>
       </c>
       <c r="W9">
-        <v>0.9381923884799737</v>
+        <v>0.3119356669562874</v>
       </c>
       <c r="X9">
-        <v>0.9819119360106912</v>
+        <v>0.3281097720858152</v>
       </c>
       <c r="Y9">
-        <v>0.9952979928923946</v>
+        <v>0.3687195725968607</v>
       </c>
       <c r="Z9">
-        <v>0.9952979928923946</v>
+        <v>0.3929853892869217</v>
       </c>
       <c r="AA9">
-        <v>0.9952979928923946</v>
+        <v>0.4109260098713123</v>
       </c>
       <c r="AB9">
-        <v>0.9952979928923946</v>
+        <v>0.4186879511598235</v>
       </c>
       <c r="AC9">
-        <v>0.9952979928923946</v>
+        <v>0.4715275363887754</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>0.4867672900855191</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.5478954259531752</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.6726089275078035</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.7714438577502252</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.7717871552992511</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0.8339960850365217</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>0.8467785446412318</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>0.8517289699884243</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>0.8961656519260977</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999998</v>
+        <v>0.9222188401020661</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999998</v>
+        <v>0.9237828019510914</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999998</v>
+        <v>0.9240626554723094</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999998</v>
+        <v>0.9263753060184082</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999998</v>
+        <v>0.9435651321514162</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999998</v>
+        <v>0.9643553858139887</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999998</v>
+        <v>0.9687279534785181</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999998</v>
+        <v>0.9697741435691387</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999998</v>
+        <v>0.9698439992383048</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999998</v>
+        <v>0.9743542701130785</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999998</v>
+        <v>0.9847416398173201</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CK9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CL9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CM9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CN9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CO9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CR9">
+        <v>1</v>
+      </c>
+      <c r="CS9">
+        <v>1</v>
+      </c>
+      <c r="CT9">
+        <v>1</v>
+      </c>
+      <c r="CU9">
+        <v>1</v>
+      </c>
+      <c r="CV9">
+        <v>1</v>
+      </c>
+      <c r="CW9">
+        <v>1</v>
+      </c>
+      <c r="CX9">
+        <v>1</v>
+      </c>
+      <c r="CY9">
+        <v>1</v>
+      </c>
+      <c r="CZ9">
+        <v>1</v>
+      </c>
+      <c r="DA9">
+        <v>1</v>
+      </c>
+      <c r="DB9">
+        <v>1</v>
+      </c>
+      <c r="DC9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:93">
+    <row r="10" spans="1:107">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6383,139 +7265,139 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1139540284563145</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2088246593787791</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2497653391575519</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4836267576914803</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.4836267576914803</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4836267576914803</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.495082175132673</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.495082175132673</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.495082175132673</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.495082175132673</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5068066608914686</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5068066608914686</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6385659567941711</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9336534397068017</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.9807057196442299</v>
+        <v>0.0883799872985708</v>
       </c>
       <c r="S10">
-        <v>0.9807057196442299</v>
+        <v>0.1672696375721977</v>
       </c>
       <c r="T10">
-        <v>0.9807057196442299</v>
+        <v>0.2193394612827325</v>
       </c>
       <c r="U10">
-        <v>0.9807057196442299</v>
+        <v>0.3673504205609767</v>
       </c>
       <c r="V10">
-        <v>0.9807057196442299</v>
+        <v>0.3719388189586282</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0.3734348267921476</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0.4108413770286498</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0.4234499077875141</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0.4324624095223861</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0.4641720825605015</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0.5017124427756648</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.5089020240178599</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.606136723302897</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.784595928740355</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.8397051035498992</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.8421572065114581</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.8655869462645144</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.8690500627753514</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.8793982380719472</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9207031219683607</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9277724127053438</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.9277771082340911</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.9280030602803705</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.9309040419332149</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9500338798911916</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9776161914344204</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.986517629118054</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.98913064244853</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9899211812550984</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0.9900498518990603</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.9930521390823079</v>
       </c>
       <c r="AW10">
         <v>1</v>
@@ -6652,10 +7534,52 @@
       <c r="CO10">
         <v>1</v>
       </c>
+      <c r="CP10">
+        <v>1</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
+      <c r="CS10">
+        <v>1</v>
+      </c>
+      <c r="CT10">
+        <v>1</v>
+      </c>
+      <c r="CU10">
+        <v>1</v>
+      </c>
+      <c r="CV10">
+        <v>1</v>
+      </c>
+      <c r="CW10">
+        <v>1</v>
+      </c>
+      <c r="CX10">
+        <v>1</v>
+      </c>
+      <c r="CY10">
+        <v>1</v>
+      </c>
+      <c r="CZ10">
+        <v>1</v>
+      </c>
+      <c r="DA10">
+        <v>1</v>
+      </c>
+      <c r="DB10">
+        <v>1</v>
+      </c>
+      <c r="DC10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:93">
+    <row r="11" spans="1:107">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6670,136 +7594,136 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2825020125775176</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2825020125775176</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.4432362719934146</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4646317490678902</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4646317490678902</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4646317490678902</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4786336041855919</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4786336041855919</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4786336041855919</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5284365655388447</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5284365655388447</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.5352213613526654</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.7604270213719394</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.9172978631057142</v>
+        <v>0.02042922591826849</v>
       </c>
       <c r="T11">
-        <v>0.9172978631057142</v>
+        <v>0.1755101085576515</v>
       </c>
       <c r="U11">
-        <v>0.9832636374441556</v>
+        <v>0.1852746094268532</v>
       </c>
       <c r="V11">
-        <v>0.9832636374441556</v>
+        <v>0.2882961802740902</v>
       </c>
       <c r="W11">
-        <v>0.9832636374441556</v>
+        <v>0.3317463052638838</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.3365445301203589</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0.3708474565863901</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.4111365897640898</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0.4339363353485264</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0.4348600685882913</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.4904552323334314</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.5007122488178297</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.5379158759336375</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.6685008751807788</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.7698707208341549</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.7722885948454208</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.8347938386305307</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.8618554048131418</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.8641700687393572</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9056282846308628</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9375260568300775</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9380630363033102</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9405480138124368</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9408426225986662</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9524614812528834</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9670509701664092</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9702686792597517</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9708303640862107</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.9709281870207955</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.9753271105464381</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.9824929876418609</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -6931,6 +7855,48 @@
         <v>1</v>
       </c>
       <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
+        <v>1</v>
+      </c>
+      <c r="CS11">
+        <v>1</v>
+      </c>
+      <c r="CT11">
+        <v>1</v>
+      </c>
+      <c r="CU11">
+        <v>1</v>
+      </c>
+      <c r="CV11">
+        <v>1</v>
+      </c>
+      <c r="CW11">
+        <v>1</v>
+      </c>
+      <c r="CX11">
+        <v>1</v>
+      </c>
+      <c r="CY11">
+        <v>1</v>
+      </c>
+      <c r="CZ11">
+        <v>1</v>
+      </c>
+      <c r="DA11">
+        <v>1</v>
+      </c>
+      <c r="DB11">
+        <v>1</v>
+      </c>
+      <c r="DC11">
         <v>1</v>
       </c>
     </row>
@@ -6949,57 +7915,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7017,30 +7983,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7058,36 +8024,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="F4">
-        <v>0.5827280293458938</v>
+        <v>0.5180993263731302</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -7099,36 +8065,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6780863475896054</v>
+        <v>0.6777163672222014</v>
       </c>
       <c r="G5">
         <v>14</v>
@@ -7140,39 +8106,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.03872044000912413</v>
       </c>
       <c r="F6">
-        <v>0.6117453742970883</v>
+        <v>0.5680259077510282</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -7181,39 +8147,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5030773936237842</v>
+        <v>0.5470180630006014</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -7222,30 +8188,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7263,36 +8229,36 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5554896549853457</v>
+        <v>0.5478954259531752</v>
       </c>
       <c r="G9">
         <v>14</v>
@@ -7304,36 +8270,36 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5068066608914686</v>
+        <v>0.5017124427756648</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -7345,39 +8311,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5284365655388447</v>
+        <v>0.5007122488178297</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>27</v>
@@ -7386,16 +8352,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7413,57 +8379,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7481,30 +8447,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7522,39 +8488,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="F4">
-        <v>0.7442532906760289</v>
+        <v>0.7834117756610944</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -7563,36 +8529,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7509480933688992</v>
+        <v>0.7497813144342681</v>
       </c>
       <c r="G5">
         <v>15</v>
@@ -7604,39 +8570,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.03872044000912413</v>
       </c>
       <c r="F6">
-        <v>0.7900763408037164</v>
+        <v>0.75156685549001</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -7645,39 +8611,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7793990584166142</v>
+        <v>0.765054511255693</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -7686,30 +8652,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7727,39 +8693,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7316691249197181</v>
+        <v>0.7714438577502252</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -7768,36 +8734,36 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9336534397068017</v>
+        <v>0.784595928740355</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -7809,39 +8775,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7604270213719394</v>
+        <v>0.7698707208341549</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>27</v>
@@ -7850,16 +8816,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7877,57 +8843,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7945,30 +8911,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7986,39 +8952,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="F4">
-        <v>0.8004351625454382</v>
+        <v>0.8736474352102512</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -8027,36 +8993,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8317950199505179</v>
+        <v>0.8315738882730661</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -8068,39 +9034,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.03872044000912413</v>
       </c>
       <c r="F6">
-        <v>0.848509881907999</v>
+        <v>0.8066801123962818</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -8109,39 +9075,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8039691060475977</v>
+      </c>
+      <c r="G7">
         <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.867278174305956</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -8150,30 +9116,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8191,39 +9157,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8339960850365217</v>
+      </c>
+      <c r="G9">
         <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8651479302750922</v>
-      </c>
-      <c r="G9">
-        <v>16</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -8232,39 +9198,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8397051035498992</v>
+      </c>
+      <c r="G10">
         <v>16</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9336534397068017</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
       </c>
       <c r="H10">
         <v>27</v>
@@ -8273,39 +9239,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9172978631057142</v>
+        <v>0.8347938386305307</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>27</v>
@@ -8314,16 +9280,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -8341,57 +9307,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8409,30 +9375,30 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -8450,39 +9416,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M3" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.01351119750034807</v>
       </c>
       <c r="F4">
-        <v>0.957239720670958</v>
+        <v>0.923365477552592</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -8491,36 +9457,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9199993521633606</v>
+        <v>0.9220571985040193</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -8532,39 +9498,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.03872044000912413</v>
       </c>
       <c r="F6">
-        <v>0.9067355483174684</v>
+        <v>0.9585378466012592</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -8573,39 +9539,39 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M6" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9723203326283887</v>
+        <v>0.9197349927421067</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>27</v>
@@ -8614,30 +9580,30 @@
         <v>900</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -8655,39 +9621,39 @@
         <v>900</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9381923884799737</v>
+        <v>0.9222188401020661</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>27</v>
@@ -8696,39 +9662,39 @@
         <v>900</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9336534397068017</v>
+        <v>0.9207031219683607</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>27</v>
@@ -8737,39 +9703,39 @@
         <v>900</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9172978631057142</v>
+        <v>0.9056282846308628</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>27</v>
@@ -8778,16 +9744,16 @@
         <v>900</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/27_11R22.xlsx
@@ -330,40 +330,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -373,9 +376,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1205,100 +1205,100 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.2093325127113981</v>
+        <v>0.3274732885047505</v>
       </c>
       <c r="BK2">
-        <v>0.003827555897907408</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.1385404450187036</v>
+        <v>0.1982021883742043</v>
       </c>
       <c r="BM2">
-        <v>0.04978975254671478</v>
+        <v>0.03613742565240962</v>
       </c>
       <c r="BN2">
-        <v>0.0002129526333741349</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0002459355492339376</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.007033681965074401</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0004166460702352094</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.002585506484429488</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01427175122325744</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.00119192052119825</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.02426522445547619</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.1997375727144969</v>
+        <v>0.3099522795907251</v>
       </c>
       <c r="BW2">
-        <v>0.06485251572432971</v>
+        <v>0.06364304924047588</v>
       </c>
       <c r="BX2">
-        <v>0.001300101142083561</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.01784102518497322</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.02962845082419112</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0203011888824589</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.05871771007475918</v>
+        <v>0.05244047949989871</v>
       </c>
       <c r="CC2">
-        <v>0.03665434797343926</v>
+        <v>0.01215128913753616</v>
       </c>
       <c r="CD2">
-        <v>0.0009744988580971247</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.005474622828939874</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.002139501168460573</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001061084594973186</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.02526471503401784</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.02993666170807171</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0001881774046588499</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.00363555955156626</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.001077647463509458</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.002697484392717032</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0207421573567061</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.02606109204054713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -1486,100 +1486,100 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.03711687559767173</v>
+        <v>0.01326722855059875</v>
       </c>
       <c r="BK3">
-        <v>0.1243133832865542</v>
+        <v>0.1758183340807987</v>
       </c>
       <c r="BL3">
-        <v>0.0444230824831533</v>
+        <v>0.02688740713280603</v>
       </c>
       <c r="BM3">
-        <v>0.1500890168129616</v>
+        <v>0.2238690856132825</v>
       </c>
       <c r="BN3">
-        <v>0.02751267635510591</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0002471269617855058</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01020773892923721</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.00037419351219092</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.004249200646181578</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.00469588841729566</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01171147189842502</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002678193797557961</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.09647242265927848</v>
+        <v>0.1239174145493225</v>
       </c>
       <c r="BW3">
-        <v>0.2033384298261971</v>
+        <v>0.3231362602232957</v>
       </c>
       <c r="BX3">
-        <v>0.004938861686870456</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.02112361319526844</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0135764644355328</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01655837108091881</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.05701378592012855</v>
+        <v>0.05035890636286246</v>
       </c>
       <c r="CC3">
-        <v>0.04080402851152778</v>
+        <v>0.02014079262204855</v>
       </c>
       <c r="CD3">
-        <v>7.774337462435032E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.004905337411745176</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.008685056241430442</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0004069603968339143</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.004016262494010147</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.05285416502639524</v>
+        <v>0.04260457086498474</v>
       </c>
       <c r="CJ3">
-        <v>0.01203081067549751</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.007456988153272313</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.003276479072434141</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0007876887986622826</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.008425324757325608</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.02804273200172791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1593,88 +1593,88 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04126560699817623</v>
+        <v>0.02309465338734465</v>
       </c>
       <c r="E4">
-        <v>0.07908738447869658</v>
+        <v>0.09930743786330479</v>
       </c>
       <c r="F4">
-        <v>0.01551733995720007</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.10538402590035</v>
+        <v>0.1522964933391424</v>
       </c>
       <c r="H4">
-        <v>0.02901083674087628</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004755954425928269</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.005805511269069542</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0007838642273714046</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.09601364718337568</v>
+        <v>0.1334147087910022</v>
       </c>
       <c r="P4">
-        <v>0.2051038581648498</v>
+        <v>0.3532369723599254</v>
       </c>
       <c r="Q4">
-        <v>0.0688256227958662</v>
+        <v>0.07862947179256637</v>
       </c>
       <c r="R4">
-        <v>0.01176000667044331</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001577991472250421</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02112302325193085</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.05823861713964418</v>
+        <v>0.05729612275208339</v>
       </c>
       <c r="V4">
-        <v>0.0314096890751934</v>
+        <v>0.003234482911118022</v>
       </c>
       <c r="W4">
-        <v>0.02477218279421596</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.02576818951122364</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.02132473434102239</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0007292941005787399</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0338995136496337</v>
+        <v>0.00825160469426265</v>
       </c>
       <c r="AC4">
-        <v>0.07508282652306114</v>
+        <v>0.09123805210925015</v>
       </c>
       <c r="AD4">
-        <v>0.005795953453927211</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001082050119458137</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01769712445909535</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.01915899640407388</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1877,64 +1877,64 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2533371285205347</v>
+        <v>0.3922338992338083</v>
       </c>
       <c r="F5">
-        <v>0.0002859709115747184</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1045637220401328</v>
+        <v>0.1313626518898294</v>
       </c>
       <c r="H5">
-        <v>0.03651914971805245</v>
+        <v>0.01204783026552895</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.007286915013325898</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.008058355154187161</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.03725725784695155</v>
+        <v>0.01334208837802302</v>
       </c>
       <c r="O5">
-        <v>0.007918393339885241</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.03410945226861031</v>
+        <v>0.007822473098350113</v>
       </c>
       <c r="Q5">
-        <v>0.1887500027763505</v>
+        <v>0.2789816423026122</v>
       </c>
       <c r="R5">
-        <v>0.07286174577929382</v>
+        <v>0.07577385893224044</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.03862302674052257</v>
+        <v>0.01573693731828986</v>
       </c>
       <c r="U5">
-        <v>0.04222389984109609</v>
+        <v>0.02205099760296674</v>
       </c>
       <c r="V5">
-        <v>0.006411779293954121</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04603216470082973</v>
+        <v>0.02872871526553722</v>
       </c>
       <c r="X5">
-        <v>0.03576038821805894</v>
+        <v>0.01071735687231554</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1946,13 +1946,13 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.004387708282312727</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.03603652017675661</v>
+        <v>0.01120154884049829</v>
       </c>
       <c r="AD5">
-        <v>0.01019089008386375</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003593959791043555</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0001340470621467218</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01055455048733434</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01510297195318176</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2170,13 +2170,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004636128217272423</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1353170730801269</v>
+        <v>0.1696694043249078</v>
       </c>
       <c r="K6">
-        <v>0.02589181054395379</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2185,34 +2185,34 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.04563132756927242</v>
+        <v>0.02870538140902542</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.1858543154905681</v>
+        <v>0.2491015700126953</v>
       </c>
       <c r="Q6">
-        <v>0.1901805445467304</v>
+        <v>0.2559013423548722</v>
       </c>
       <c r="R6">
-        <v>0.01551310972387198</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.01137940676885543</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.009277109024719723</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02741167739447727</v>
+        <v>6.855433990830583E-05</v>
       </c>
       <c r="V6">
-        <v>0.1147496635947037</v>
+        <v>0.1373424747163153</v>
       </c>
       <c r="W6">
-        <v>0.05843354110428264</v>
+        <v>0.04882732511193846</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.05822566640946931</v>
+        <v>0.04850059701176616</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02061942163369719</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.06570156600483902</v>
+        <v>0.06025087991208491</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001471384423345111</v>
+        <v>0</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0002080477650089858</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.005264031855641385</v>
+        <v>0</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -2439,13 +2439,13 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2146672358136877</v>
+        <v>0.232441851057346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.261608316902376</v>
+        <v>0.2861247886607389</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02680184090772062</v>
+        <v>0.01759451395577105</v>
       </c>
       <c r="K7">
-        <v>0.01991604017088421</v>
+        <v>0.00971974834041197</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -2466,25 +2466,25 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.01685155281098787</v>
+        <v>0.006215127656093205</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.04205198170565483</v>
+        <v>0.03503493794923843</v>
       </c>
       <c r="Q7">
-        <v>0.1975020901053031</v>
+        <v>0.2128113818682074</v>
       </c>
       <c r="R7">
-        <v>0.08787911588934187</v>
+        <v>0.08744393935841167</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.02617421920094924</v>
+        <v>0.01687675083353946</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.07886793912148345</v>
+        <v>0.07713854312673739</v>
       </c>
       <c r="X7">
-        <v>0.02767966737161117</v>
+        <v>0.01859841719350452</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2888,100 +2888,100 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.01718004339568653</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.1767109583960866</v>
+        <v>0.2948805134460147</v>
       </c>
       <c r="BK8">
-        <v>0.002126125758357715</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>0.0883417267059685</v>
+        <v>0.1172634853896637</v>
       </c>
       <c r="BM8">
-        <v>0.04188928839535432</v>
+        <v>0.02389677979653458</v>
       </c>
       <c r="BN8">
-        <v>0.001124941608991041</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>0.007615974762130242</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>0.0178861905255018</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>0.01282684339169905</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>0.003111658867014859</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>0.07823428288736871</v>
+        <v>0.0969481098005492</v>
       </c>
       <c r="BT8">
-        <v>0.02302765935272242</v>
+        <v>0</v>
       </c>
       <c r="BU8">
-        <v>0.03926510869056353</v>
+        <v>0.01862233085841109</v>
       </c>
       <c r="BV8">
-        <v>0.1338146954014857</v>
+        <v>0.208661513890351</v>
       </c>
       <c r="BW8">
-        <v>0.1001251793006392</v>
+        <v>0.1409475413679658</v>
       </c>
       <c r="BX8">
-        <v>0.0008993129308328461</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>0.06667682434939075</v>
+        <v>0.07371828876285312</v>
       </c>
       <c r="BZ8">
-        <v>0.02675621020994628</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>0.00514434149570731</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>0.03919346944650045</v>
+        <v>0.0184783401347245</v>
       </c>
       <c r="CC8">
-        <v>0.03327526696561958</v>
+        <v>0.00658309655293231</v>
       </c>
       <c r="CD8">
-        <v>0.007672044909451907</v>
+        <v>0</v>
       </c>
       <c r="CE8">
-        <v>0.0001481460009841318</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>0.002185678910124431</v>
+        <v>0</v>
       </c>
       <c r="CG8">
-        <v>0.01646112344917168</v>
+        <v>0</v>
       </c>
       <c r="CH8">
-        <v>0.0291663659530726</v>
+        <v>0</v>
       </c>
       <c r="CI8">
-        <v>0.01457345360922369</v>
+        <v>0</v>
       </c>
       <c r="CJ8">
-        <v>0.001850616300191951</v>
+        <v>0</v>
       </c>
       <c r="CK8">
-        <v>0.0001359199660855983</v>
+        <v>0</v>
       </c>
       <c r="CL8">
-        <v>0.000992379313716903</v>
+        <v>0</v>
       </c>
       <c r="CM8">
-        <v>0.001795959210499964</v>
+        <v>0</v>
       </c>
       <c r="CN8">
-        <v>0.009792209539909539</v>
+        <v>0</v>
       </c>
       <c r="CO8">
         <v>0</v>
@@ -3001,16 +3001,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1197584319880342</v>
+        <v>0.1326880453646132</v>
       </c>
       <c r="F9">
-        <v>0.08848680175649863</v>
+        <v>0.09113614938469951</v>
       </c>
       <c r="G9">
-        <v>0.05144943918053463</v>
+        <v>0.04192308867337007</v>
       </c>
       <c r="H9">
-        <v>0.119107341230983</v>
+        <v>0.1318229144069316</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.03740504205780697</v>
+        <v>0.02326172295551624</v>
       </c>
       <c r="L9">
-        <v>0.01043682334879206</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0575846697819371</v>
+        <v>0.05007522087353843</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.07126110564075924</v>
+        <v>0.06824766138828525</v>
       </c>
       <c r="R9">
-        <v>0.1761794699343724</v>
+        <v>0.2076569894991861</v>
       </c>
       <c r="S9">
-        <v>0.1334788053553741</v>
+        <v>0.1509188674466154</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.07304445820488151</v>
+        <v>0.07061727498665769</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.04371954753071755</v>
+        <v>0.03165206502058652</v>
       </c>
       <c r="Y9">
-        <v>0.01338605688170346</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.004702007107605172</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -3279,16 +3279,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1139540284563145</v>
+        <v>0.1131143078134474</v>
       </c>
       <c r="E10">
-        <v>0.09487063092246464</v>
+        <v>0.09472627874446646</v>
       </c>
       <c r="F10">
-        <v>0.04094067977877283</v>
+        <v>0.04276144871040544</v>
       </c>
       <c r="G10">
-        <v>0.2338614185339284</v>
+        <v>0.2286524644976464</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01145541744119264</v>
+        <v>0.01435058214389127</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3306,22 +3306,22 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.00331258178088847</v>
       </c>
       <c r="N10">
-        <v>0.01172448575879563</v>
+        <v>0.01460984604262051</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.1317592959027024</v>
+        <v>0.130270779809821</v>
       </c>
       <c r="Q10">
-        <v>0.2950874829126306</v>
+        <v>0.2876475490772084</v>
       </c>
       <c r="R10">
-        <v>0.04705227993742821</v>
+        <v>0.04865035194034681</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0192942803557702</v>
+        <v>0.02190380943925801</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -3566,25 +3566,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2825020125775176</v>
+        <v>0.2623563476530243</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.160734259415897</v>
+        <v>0.1531622756660631</v>
       </c>
       <c r="I11">
-        <v>0.02139547707447558</v>
+        <v>0.02821155074490867</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.009025360614876611</v>
       </c>
       <c r="L11">
-        <v>0.01400185511770172</v>
+        <v>0.02158139072938492</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -3593,25 +3593,25 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.04980296135325276</v>
+        <v>0.05368569149864434</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.006784795813820794</v>
+        <v>0.01510956158989049</v>
       </c>
       <c r="R11">
-        <v>0.225205660019274</v>
+        <v>0.2109763896313706</v>
       </c>
       <c r="S11">
-        <v>0.1568708417337747</v>
+        <v>0.1496977926847813</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.06596577433844142</v>
+        <v>0.06817953998309471</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -3620,10 +3620,10 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01673636255584453</v>
+        <v>0.02403353420987708</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.003980564994083701</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -4309,97 +4309,97 @@
         <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.2093325127113981</v>
+        <v>0.3274732885047505</v>
       </c>
       <c r="BK2">
-        <v>0.2131600686093055</v>
+        <v>0.3274732885047505</v>
       </c>
       <c r="BL2">
-        <v>0.351700513628009</v>
+        <v>0.5256754768789548</v>
       </c>
       <c r="BM2">
-        <v>0.4014902661747238</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BN2">
-        <v>0.401703218808098</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BO2">
-        <v>0.4019491543573319</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BP2">
-        <v>0.4089828363224063</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BQ2">
-        <v>0.4093994823926415</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BR2">
-        <v>0.411984988877071</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BS2">
-        <v>0.4262567401003284</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BT2">
-        <v>0.4274486606215267</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BU2">
-        <v>0.4517138850770029</v>
+        <v>0.5618129025313644</v>
       </c>
       <c r="BV2">
-        <v>0.6514514577914998</v>
+        <v>0.8717651821220895</v>
       </c>
       <c r="BW2">
-        <v>0.7163039735158295</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="BX2">
-        <v>0.7176040746579131</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="BY2">
-        <v>0.7354450998428863</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="BZ2">
-        <v>0.7650735506670774</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="CA2">
-        <v>0.7853747395495363</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="CB2">
-        <v>0.8440924496242955</v>
+        <v>0.9878487108624642</v>
       </c>
       <c r="CC2">
-        <v>0.8807467975977348</v>
+        <v>1</v>
       </c>
       <c r="CD2">
-        <v>0.8817212964558319</v>
+        <v>1</v>
       </c>
       <c r="CE2">
-        <v>0.8871959192847717</v>
+        <v>1</v>
       </c>
       <c r="CF2">
-        <v>0.8893354204532323</v>
+        <v>1</v>
       </c>
       <c r="CG2">
-        <v>0.8903965050482056</v>
+        <v>1</v>
       </c>
       <c r="CH2">
-        <v>0.9156612200822234</v>
+        <v>1</v>
       </c>
       <c r="CI2">
-        <v>0.9455978817902951</v>
+        <v>1</v>
       </c>
       <c r="CJ2">
-        <v>0.945786059194954</v>
+        <v>1</v>
       </c>
       <c r="CK2">
-        <v>0.9494216187465202</v>
+        <v>1</v>
       </c>
       <c r="CL2">
-        <v>0.9504992662100297</v>
+        <v>1</v>
       </c>
       <c r="CM2">
-        <v>0.9531967506027467</v>
+        <v>1</v>
       </c>
       <c r="CN2">
-        <v>0.9739389079594528</v>
+        <v>1</v>
       </c>
       <c r="CO2">
         <v>1</v>
@@ -4590,97 +4590,97 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.03711687559767173</v>
+        <v>0.01326722855059875</v>
       </c>
       <c r="BK3">
-        <v>0.1614302588842259</v>
+        <v>0.1890855626313975</v>
       </c>
       <c r="BL3">
-        <v>0.2058533413673792</v>
+        <v>0.2159729697642035</v>
       </c>
       <c r="BM3">
-        <v>0.3559423581803408</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BN3">
-        <v>0.3834550345354467</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BO3">
-        <v>0.3837021614972322</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BP3">
-        <v>0.3939099004264695</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BQ3">
-        <v>0.3942840939386604</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BR3">
-        <v>0.3985332945848419</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BS3">
-        <v>0.4032291830021376</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BT3">
-        <v>0.4149406549005626</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BU3">
-        <v>0.4152084742803184</v>
+        <v>0.439842055377486</v>
       </c>
       <c r="BV3">
-        <v>0.511680896939597</v>
+        <v>0.5637594699268085</v>
       </c>
       <c r="BW3">
-        <v>0.715019326765794</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="BX3">
-        <v>0.7199581884526645</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="BY3">
-        <v>0.7410818016479329</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="BZ3">
-        <v>0.7546582660834658</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="CA3">
-        <v>0.7712166371643846</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="CB3">
-        <v>0.8282304230845131</v>
+        <v>0.9372546365129666</v>
       </c>
       <c r="CC3">
-        <v>0.8690344515960409</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CD3">
-        <v>0.8691121949706652</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CE3">
-        <v>0.8740175323824103</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CF3">
-        <v>0.8827025886238408</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CG3">
-        <v>0.8831095490206747</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CH3">
-        <v>0.8871258115146848</v>
+        <v>0.9573954291350152</v>
       </c>
       <c r="CI3">
-        <v>0.9399799765410801</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ3">
-        <v>0.9520107872165776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK3">
-        <v>0.95946777536985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL3">
-        <v>0.9627442544422841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM3">
-        <v>0.9635319432409464</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN3">
-        <v>0.971957267998272</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO3">
         <v>0.9999999999999999</v>
@@ -4697,97 +4697,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04126560699817623</v>
+        <v>0.02309465338734465</v>
       </c>
       <c r="E4">
-        <v>0.1203529914768728</v>
+        <v>0.1224020912506494</v>
       </c>
       <c r="F4">
-        <v>0.1358703314340729</v>
+        <v>0.1224020912506494</v>
       </c>
       <c r="G4">
-        <v>0.2412543573344229</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="H4">
-        <v>0.2702651940752991</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="I4">
-        <v>0.2750211485012274</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="J4">
-        <v>0.2750211485012274</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="K4">
-        <v>0.2808266597702969</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="L4">
-        <v>0.2808266597702969</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="M4">
-        <v>0.2816105239976683</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="N4">
-        <v>0.2816105239976683</v>
+        <v>0.2746985845897918</v>
       </c>
       <c r="O4">
-        <v>0.377624171181044</v>
+        <v>0.4081132933807939</v>
       </c>
       <c r="P4">
-        <v>0.5827280293458938</v>
+        <v>0.7613502657407194</v>
       </c>
       <c r="Q4">
-        <v>0.6515536521417601</v>
+        <v>0.8399797375332858</v>
       </c>
       <c r="R4">
-        <v>0.6633136588122034</v>
+        <v>0.8399797375332858</v>
       </c>
       <c r="S4">
-        <v>0.6648916502844539</v>
+        <v>0.8399797375332858</v>
       </c>
       <c r="T4">
-        <v>0.6860146735363847</v>
+        <v>0.8399797375332858</v>
       </c>
       <c r="U4">
-        <v>0.7442532906760289</v>
+        <v>0.8972758602853692</v>
       </c>
       <c r="V4">
-        <v>0.7756629797512222</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="W4">
-        <v>0.8004351625454382</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="X4">
-        <v>0.8262033520566618</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="Y4">
-        <v>0.8475280863976843</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="Z4">
-        <v>0.848257380498263</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="AA4">
-        <v>0.848257380498263</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="AB4">
-        <v>0.8821568941478968</v>
+        <v>0.9087619478907499</v>
       </c>
       <c r="AC4">
-        <v>0.957239720670958</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9630356741248852</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9631438791368311</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9631438791368311</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9631438791368311</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9808410035959264</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -4981,97 +4981,97 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2533371285205347</v>
+        <v>0.3922338992338083</v>
       </c>
       <c r="F5">
-        <v>0.2536230994321094</v>
+        <v>0.3922338992338083</v>
       </c>
       <c r="G5">
-        <v>0.3581868214722422</v>
+        <v>0.5235965511236377</v>
       </c>
       <c r="H5">
-        <v>0.3947059711902947</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="I5">
-        <v>0.3947059711902947</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="J5">
-        <v>0.4019928862036206</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="K5">
-        <v>0.4019928862036206</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="L5">
-        <v>0.4100512413578078</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="M5">
-        <v>0.4100512413578078</v>
+        <v>0.5356443813891666</v>
       </c>
       <c r="N5">
-        <v>0.4473084992047593</v>
+        <v>0.5489864697671896</v>
       </c>
       <c r="O5">
-        <v>0.4552268925446446</v>
+        <v>0.5489864697671896</v>
       </c>
       <c r="P5">
-        <v>0.4893363448132549</v>
+        <v>0.5568089428655397</v>
       </c>
       <c r="Q5">
-        <v>0.6780863475896054</v>
+        <v>0.835790585168152</v>
       </c>
       <c r="R5">
-        <v>0.7509480933688992</v>
+        <v>0.9115644441003924</v>
       </c>
       <c r="S5">
-        <v>0.7509480933688992</v>
+        <v>0.9115644441003924</v>
       </c>
       <c r="T5">
-        <v>0.7895711201094218</v>
+        <v>0.9273013814186822</v>
       </c>
       <c r="U5">
-        <v>0.8317950199505179</v>
+        <v>0.9493523790216489</v>
       </c>
       <c r="V5">
-        <v>0.8382067992444719</v>
+        <v>0.9493523790216489</v>
       </c>
       <c r="W5">
-        <v>0.8842389639453017</v>
+        <v>0.9780810942871861</v>
       </c>
       <c r="X5">
-        <v>0.9199993521633606</v>
+        <v>0.9887984511595017</v>
       </c>
       <c r="Y5">
-        <v>0.9199993521633606</v>
+        <v>0.9887984511595017</v>
       </c>
       <c r="Z5">
-        <v>0.9199993521633606</v>
+        <v>0.9887984511595017</v>
       </c>
       <c r="AA5">
-        <v>0.9199993521633606</v>
+        <v>0.9887984511595017</v>
       </c>
       <c r="AB5">
-        <v>0.9243870604456733</v>
+        <v>0.9887984511595017</v>
       </c>
       <c r="AC5">
-        <v>0.9604235806224299</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9706144707062937</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9706144707062937</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9706144707062937</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9742084304973373</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.974342477559484</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9848970280468183</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -5262,271 +5262,271 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="F6">
-        <v>0.02840669024470949</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="G6">
-        <v>0.02840669024470949</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="H6">
-        <v>0.02840669024470949</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="I6">
-        <v>0.02887030306643674</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="J6">
-        <v>0.1641873761465636</v>
+        <v>0.1713018751313939</v>
       </c>
       <c r="K6">
-        <v>0.1900791866905174</v>
+        <v>0.1713018751313939</v>
       </c>
       <c r="L6">
-        <v>0.1900791866905174</v>
+        <v>0.1713018751313939</v>
       </c>
       <c r="M6">
-        <v>0.1900791866905174</v>
+        <v>0.1713018751313939</v>
       </c>
       <c r="N6">
-        <v>0.2357105142597898</v>
+        <v>0.2000072565404193</v>
       </c>
       <c r="O6">
-        <v>0.2357105142597898</v>
+        <v>0.2000072565404193</v>
       </c>
       <c r="P6">
-        <v>0.4215648297503579</v>
+        <v>0.4491088265531147</v>
       </c>
       <c r="Q6">
-        <v>0.6117453742970883</v>
+        <v>0.7050101689079868</v>
       </c>
       <c r="R6">
-        <v>0.6272584840209603</v>
+        <v>0.7050101689079868</v>
       </c>
       <c r="S6">
-        <v>0.6386378907898157</v>
+        <v>0.7050101689079868</v>
       </c>
       <c r="T6">
-        <v>0.6479149998145354</v>
+        <v>0.7050101689079868</v>
       </c>
       <c r="U6">
-        <v>0.6753266772090126</v>
+        <v>0.7050787232478951</v>
       </c>
       <c r="V6">
-        <v>0.7900763408037164</v>
+        <v>0.8424211979642104</v>
       </c>
       <c r="W6">
-        <v>0.848509881907999</v>
+        <v>0.8912485230761489</v>
       </c>
       <c r="X6">
-        <v>0.848509881907999</v>
+        <v>0.8912485230761489</v>
       </c>
       <c r="Y6">
-        <v>0.848509881907999</v>
+        <v>0.8912485230761489</v>
       </c>
       <c r="Z6">
-        <v>0.9067355483174684</v>
+        <v>0.939749120087915</v>
       </c>
       <c r="AA6">
-        <v>0.9067355483174684</v>
+        <v>0.939749120087915</v>
       </c>
       <c r="AB6">
-        <v>0.9273549699511656</v>
+        <v>0.939749120087915</v>
       </c>
       <c r="AC6">
-        <v>0.9273549699511656</v>
+        <v>0.939749120087915</v>
       </c>
       <c r="AD6">
-        <v>0.9930565359560046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE6">
-        <v>0.9930565359560046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF6">
-        <v>0.9930565359560046</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG6">
-        <v>0.9945279203793498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.9945279203793498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI6">
-        <v>0.9947359681443587</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -5543,61 +5543,61 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2146672358136877</v>
+        <v>0.232441851057346</v>
       </c>
       <c r="F7">
-        <v>0.2146672358136877</v>
+        <v>0.232441851057346</v>
       </c>
       <c r="G7">
-        <v>0.4762755527160637</v>
+        <v>0.5185666397180849</v>
       </c>
       <c r="H7">
-        <v>0.4762755527160637</v>
+        <v>0.5185666397180849</v>
       </c>
       <c r="I7">
-        <v>0.4762755527160637</v>
+        <v>0.5185666397180849</v>
       </c>
       <c r="J7">
-        <v>0.5030773936237843</v>
+        <v>0.536161153673856</v>
       </c>
       <c r="K7">
-        <v>0.5229934337946686</v>
+        <v>0.545880902014268</v>
       </c>
       <c r="L7">
-        <v>0.5229934337946686</v>
+        <v>0.545880902014268</v>
       </c>
       <c r="M7">
-        <v>0.5229934337946686</v>
+        <v>0.545880902014268</v>
       </c>
       <c r="N7">
-        <v>0.5398449866056564</v>
+        <v>0.5520960296703612</v>
       </c>
       <c r="O7">
-        <v>0.5398449866056564</v>
+        <v>0.5520960296703612</v>
       </c>
       <c r="P7">
-        <v>0.5818969683113112</v>
+        <v>0.5871309676195996</v>
       </c>
       <c r="Q7">
-        <v>0.7793990584166143</v>
+        <v>0.799942349487807</v>
       </c>
       <c r="R7">
-        <v>0.8672781743059561</v>
+        <v>0.8873862888462186</v>
       </c>
       <c r="S7">
-        <v>0.8672781743059561</v>
+        <v>0.8873862888462186</v>
       </c>
       <c r="T7">
-        <v>0.8934523935069053</v>
+        <v>0.9042630396797581</v>
       </c>
       <c r="U7">
-        <v>0.8934523935069053</v>
+        <v>0.9042630396797581</v>
       </c>
       <c r="V7">
-        <v>0.8934523935069053</v>
+        <v>0.9042630396797581</v>
       </c>
       <c r="W7">
-        <v>0.9723203326283888</v>
+        <v>0.9814015828064955</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -5992,103 +5992,103 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0.01718004339568653</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>0.1938910017917731</v>
+        <v>0.2948805134460147</v>
       </c>
       <c r="BK8">
-        <v>0.1960171275501308</v>
+        <v>0.2948805134460147</v>
       </c>
       <c r="BL8">
-        <v>0.2843588542560993</v>
+        <v>0.4121439988356785</v>
       </c>
       <c r="BM8">
-        <v>0.3262481426514536</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BN8">
-        <v>0.3273730842604446</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BO8">
-        <v>0.3349890590225749</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BP8">
-        <v>0.3528752495480766</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BQ8">
-        <v>0.3657020929397757</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BR8">
-        <v>0.3688137518067905</v>
+        <v>0.4360407786322131</v>
       </c>
       <c r="BS8">
-        <v>0.4470480346941593</v>
+        <v>0.5329888884327623</v>
       </c>
       <c r="BT8">
-        <v>0.4700756940468817</v>
+        <v>0.5329888884327623</v>
       </c>
       <c r="BU8">
-        <v>0.5093408027374452</v>
+        <v>0.5516112192911734</v>
       </c>
       <c r="BV8">
-        <v>0.6431554981389309</v>
+        <v>0.7602727331815244</v>
       </c>
       <c r="BW8">
-        <v>0.74328067743957</v>
+        <v>0.9012202745494903</v>
       </c>
       <c r="BX8">
-        <v>0.7441799903704029</v>
+        <v>0.9012202745494903</v>
       </c>
       <c r="BY8">
-        <v>0.8108568147197937</v>
+        <v>0.9749385633123434</v>
       </c>
       <c r="BZ8">
-        <v>0.8376130249297399</v>
+        <v>0.9749385633123434</v>
       </c>
       <c r="CA8">
-        <v>0.8427573664254472</v>
+        <v>0.9749385633123434</v>
       </c>
       <c r="CB8">
-        <v>0.8819508358719477</v>
+        <v>0.9934169034470679</v>
       </c>
       <c r="CC8">
-        <v>0.9152261028375672</v>
+        <v>1</v>
       </c>
       <c r="CD8">
-        <v>0.9228981477470192</v>
+        <v>1</v>
       </c>
       <c r="CE8">
-        <v>0.9230462937480033</v>
+        <v>1</v>
       </c>
       <c r="CF8">
-        <v>0.9252319726581277</v>
+        <v>1</v>
       </c>
       <c r="CG8">
-        <v>0.9416930961072995</v>
+        <v>1</v>
       </c>
       <c r="CH8">
-        <v>0.9708594620603721</v>
+        <v>1</v>
       </c>
       <c r="CI8">
-        <v>0.9854329156695958</v>
+        <v>1</v>
       </c>
       <c r="CJ8">
-        <v>0.9872835319697877</v>
+        <v>1</v>
       </c>
       <c r="CK8">
-        <v>0.9874194519358733</v>
+        <v>1</v>
       </c>
       <c r="CL8">
-        <v>0.9884118312495902</v>
+        <v>1</v>
       </c>
       <c r="CM8">
-        <v>0.9902077904600901</v>
+        <v>1</v>
       </c>
       <c r="CN8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="CO8">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -6105,271 +6105,271 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1197584319880342</v>
+        <v>0.1326880453646132</v>
       </c>
       <c r="F9">
-        <v>0.2082452337445328</v>
+        <v>0.2238241947493127</v>
       </c>
       <c r="G9">
-        <v>0.2596946729250674</v>
+        <v>0.2657472834226828</v>
       </c>
       <c r="H9">
-        <v>0.3788020141560504</v>
+        <v>0.3975701978296143</v>
       </c>
       <c r="I9">
-        <v>0.3788020141560504</v>
+        <v>0.3975701978296143</v>
       </c>
       <c r="J9">
-        <v>0.3788020141560504</v>
+        <v>0.3975701978296143</v>
       </c>
       <c r="K9">
-        <v>0.4162070562138574</v>
+        <v>0.4208319207851306</v>
       </c>
       <c r="L9">
-        <v>0.4266438795626494</v>
+        <v>0.4208319207851306</v>
       </c>
       <c r="M9">
-        <v>0.4266438795626494</v>
+        <v>0.4208319207851306</v>
       </c>
       <c r="N9">
-        <v>0.4266438795626494</v>
+        <v>0.4208319207851306</v>
       </c>
       <c r="O9">
-        <v>0.4842285493445865</v>
+        <v>0.470907141658669</v>
       </c>
       <c r="P9">
-        <v>0.4842285493445865</v>
+        <v>0.470907141658669</v>
       </c>
       <c r="Q9">
-        <v>0.5554896549853457</v>
+        <v>0.5391548030469543</v>
       </c>
       <c r="R9">
-        <v>0.7316691249197181</v>
+        <v>0.7468117925461404</v>
       </c>
       <c r="S9">
-        <v>0.8651479302750922</v>
+        <v>0.8977306599927557</v>
       </c>
       <c r="T9">
-        <v>0.8651479302750922</v>
+        <v>0.8977306599927557</v>
       </c>
       <c r="U9">
-        <v>0.9381923884799737</v>
+        <v>0.9683479349794134</v>
       </c>
       <c r="V9">
-        <v>0.9381923884799737</v>
+        <v>0.9683479349794134</v>
       </c>
       <c r="W9">
-        <v>0.9381923884799737</v>
+        <v>0.9683479349794134</v>
       </c>
       <c r="X9">
-        <v>0.9819119360106912</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.9952979928923946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.9952979928923946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.9952979928923946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9952979928923946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9952979928923946</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CE9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CF9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CG9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CH9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CI9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CJ9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CK9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CL9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CM9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CN9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CO9">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -6383,61 +6383,61 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1139540284563145</v>
+        <v>0.1131143078134474</v>
       </c>
       <c r="E10">
-        <v>0.2088246593787791</v>
+        <v>0.2078405865579138</v>
       </c>
       <c r="F10">
-        <v>0.2497653391575519</v>
+        <v>0.2506020352683193</v>
       </c>
       <c r="G10">
-        <v>0.4836267576914803</v>
+        <v>0.4792544997659657</v>
       </c>
       <c r="H10">
-        <v>0.4836267576914803</v>
+        <v>0.4792544997659657</v>
       </c>
       <c r="I10">
-        <v>0.4836267576914803</v>
+        <v>0.4792544997659657</v>
       </c>
       <c r="J10">
-        <v>0.495082175132673</v>
+        <v>0.493605081909857</v>
       </c>
       <c r="K10">
-        <v>0.495082175132673</v>
+        <v>0.493605081909857</v>
       </c>
       <c r="L10">
-        <v>0.495082175132673</v>
+        <v>0.493605081909857</v>
       </c>
       <c r="M10">
-        <v>0.495082175132673</v>
+        <v>0.4969176636907454</v>
       </c>
       <c r="N10">
-        <v>0.5068066608914686</v>
+        <v>0.5115275097333659</v>
       </c>
       <c r="O10">
-        <v>0.5068066608914686</v>
+        <v>0.5115275097333659</v>
       </c>
       <c r="P10">
-        <v>0.6385659567941711</v>
+        <v>0.6417982895431869</v>
       </c>
       <c r="Q10">
-        <v>0.9336534397068017</v>
+        <v>0.9294458386203952</v>
       </c>
       <c r="R10">
-        <v>0.9807057196442299</v>
+        <v>0.978096190560742</v>
       </c>
       <c r="S10">
-        <v>0.9807057196442299</v>
+        <v>0.978096190560742</v>
       </c>
       <c r="T10">
-        <v>0.9807057196442299</v>
+        <v>0.978096190560742</v>
       </c>
       <c r="U10">
-        <v>0.9807057196442299</v>
+        <v>0.978096190560742</v>
       </c>
       <c r="V10">
-        <v>0.9807057196442299</v>
+        <v>0.978096190560742</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -6670,61 +6670,61 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.2825020125775176</v>
+        <v>0.2623563476530243</v>
       </c>
       <c r="G11">
-        <v>0.2825020125775176</v>
+        <v>0.2623563476530243</v>
       </c>
       <c r="H11">
-        <v>0.4432362719934146</v>
+        <v>0.4155186233190875</v>
       </c>
       <c r="I11">
-        <v>0.4646317490678902</v>
+        <v>0.4437301740639962</v>
       </c>
       <c r="J11">
-        <v>0.4646317490678902</v>
+        <v>0.4437301740639962</v>
       </c>
       <c r="K11">
-        <v>0.4646317490678902</v>
+        <v>0.4527555346788728</v>
       </c>
       <c r="L11">
-        <v>0.4786336041855919</v>
+        <v>0.4743369254082577</v>
       </c>
       <c r="M11">
-        <v>0.4786336041855919</v>
+        <v>0.4743369254082577</v>
       </c>
       <c r="N11">
-        <v>0.4786336041855919</v>
+        <v>0.4743369254082577</v>
       </c>
       <c r="O11">
-        <v>0.5284365655388447</v>
+        <v>0.5280226169069021</v>
       </c>
       <c r="P11">
-        <v>0.5284365655388447</v>
+        <v>0.5280226169069021</v>
       </c>
       <c r="Q11">
-        <v>0.5352213613526654</v>
+        <v>0.5431321784967926</v>
       </c>
       <c r="R11">
-        <v>0.7604270213719394</v>
+        <v>0.7541085681281632</v>
       </c>
       <c r="S11">
-        <v>0.9172978631057142</v>
+        <v>0.9038063608129445</v>
       </c>
       <c r="T11">
-        <v>0.9172978631057142</v>
+        <v>0.9038063608129445</v>
       </c>
       <c r="U11">
-        <v>0.9832636374441556</v>
+        <v>0.9719859007960392</v>
       </c>
       <c r="V11">
-        <v>0.9832636374441556</v>
+        <v>0.9719859007960392</v>
       </c>
       <c r="W11">
-        <v>0.9832636374441556</v>
+        <v>0.9719859007960392</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0.9960194350059163</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -6993,34 +6993,34 @@
         <v>93</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5256754768789548</v>
       </c>
       <c r="F2">
-        <v>0.6514514577914998</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2">
         <v>27</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -7034,34 +7034,34 @@
         <v>94</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5637594699268085</v>
+      </c>
+      <c r="F3">
         <v>73</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.511680896939597</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>13</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3">
         <v>27</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>117</v>
@@ -7075,34 +7075,34 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.7613502657407194</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5827280293458938</v>
-      </c>
       <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4">
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>27</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>117</v>
@@ -7116,34 +7116,34 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5235965511236377</v>
       </c>
       <c r="F5">
-        <v>0.6780863475896054</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
         <v>27</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>117</v>
@@ -7157,34 +7157,34 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.7050101689079868</v>
+      </c>
+      <c r="F6">
         <v>16</v>
       </c>
-      <c r="E6">
-        <v>0.02840669024470949</v>
-      </c>
-      <c r="F6">
-        <v>0.6117453742970883</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>27</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
       </c>
       <c r="L6" t="s">
         <v>117</v>
@@ -7198,34 +7198,34 @@
         <v>98</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5185666397180849</v>
       </c>
       <c r="F7">
-        <v>0.5030773936237843</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7">
         <v>27</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
       </c>
       <c r="L7" t="s">
         <v>117</v>
@@ -7239,34 +7239,34 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>59</v>
       </c>
       <c r="D8">
-        <v>72</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5329888884327623</v>
       </c>
       <c r="F8">
-        <v>0.5093408027374452</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
         <v>27</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>117</v>
@@ -7280,34 +7280,34 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.5391548030469543</v>
+      </c>
+      <c r="F9">
         <v>16</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5554896549853457</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9">
         <v>27</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>117</v>
@@ -7321,34 +7321,34 @@
         <v>101</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.5115275097333659</v>
+      </c>
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5068066608914686</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10">
         <v>27</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>117</v>
@@ -7362,34 +7362,34 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5280226169069021</v>
+      </c>
+      <c r="F11">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5284365655388447</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>11</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
         <v>27</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
@@ -7457,34 +7457,34 @@
         <v>93</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8717651821220895</v>
       </c>
       <c r="F2">
-        <v>0.7163039735158295</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2">
         <v>27</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -7498,34 +7498,34 @@
         <v>94</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.8868957301501041</v>
+      </c>
+      <c r="F3">
         <v>74</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.715019326765794</v>
-      </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3">
         <v>27</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>117</v>
@@ -7539,34 +7539,34 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.7613502657407194</v>
       </c>
       <c r="F4">
-        <v>0.7442532906760289</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>27</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>117</v>
@@ -7580,34 +7580,34 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.835790585168152</v>
       </c>
       <c r="F5">
-        <v>0.7509480933688992</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
         <v>27</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>117</v>
@@ -7621,34 +7621,34 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.7050101689079868</v>
       </c>
       <c r="F6">
-        <v>0.7900763408037164</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>27</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
       </c>
       <c r="L6" t="s">
         <v>117</v>
@@ -7662,34 +7662,34 @@
         <v>98</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.799942349487807</v>
+      </c>
+      <c r="F7">
         <v>16</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7793990584166143</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>14</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7">
         <v>27</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
       </c>
       <c r="L7" t="s">
         <v>117</v>
@@ -7703,34 +7703,34 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>59</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7602727331815244</v>
       </c>
       <c r="F8">
-        <v>0.74328067743957</v>
+        <v>73</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
         <v>27</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>117</v>
@@ -7744,34 +7744,34 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.7</v>
+      </c>
+      <c r="E9">
+        <v>0.7468117925461404</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7316691249197181</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9">
         <v>27</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>117</v>
@@ -7785,34 +7785,34 @@
         <v>101</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9294458386203952</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9336534397068017</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10">
         <v>27</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>117</v>
@@ -7826,34 +7826,34 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.7541085681281632</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7604270213719394</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
         <v>27</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
@@ -7921,34 +7921,34 @@
         <v>93</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8717651821220895</v>
       </c>
       <c r="F2">
-        <v>0.8440924496242955</v>
+        <v>73</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2">
         <v>27</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -7962,34 +7962,34 @@
         <v>94</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8868957301501041</v>
       </c>
       <c r="F3">
-        <v>0.8282304230845131</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3">
         <v>27</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>117</v>
@@ -8003,34 +8003,34 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8399797375332858</v>
       </c>
       <c r="F4">
-        <v>0.8004351625454382</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>27</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>117</v>
@@ -8044,34 +8044,34 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.835790585168152</v>
       </c>
       <c r="F5">
-        <v>0.8317950199505179</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
         <v>27</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>117</v>
@@ -8085,34 +8085,34 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0.02840669024470949</v>
+        <v>0.8424211979642104</v>
       </c>
       <c r="F6">
-        <v>0.848509881907999</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>27</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
       </c>
       <c r="L6" t="s">
         <v>117</v>
@@ -8126,34 +8126,34 @@
         <v>98</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.8873862888462186</v>
+      </c>
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8672781743059561</v>
-      </c>
       <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7">
         <v>27</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
       </c>
       <c r="L7" t="s">
         <v>117</v>
@@ -8167,34 +8167,34 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>59</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9012202745494903</v>
       </c>
       <c r="F8">
-        <v>0.8108568147197937</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
         <v>27</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>117</v>
@@ -8208,34 +8208,34 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.8977306599927557</v>
+      </c>
+      <c r="F9">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8651479302750922</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9">
         <v>27</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>117</v>
@@ -8249,34 +8249,34 @@
         <v>101</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9294458386203952</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9336534397068017</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10">
         <v>27</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>117</v>
@@ -8290,34 +8290,34 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>0.9038063608129445</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9172978631057142</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
         <v>27</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
@@ -8385,34 +8385,34 @@
         <v>93</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>59</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9354082313625655</v>
       </c>
       <c r="F2">
-        <v>0.9156612200822234</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2">
         <v>27</v>
-      </c>
-      <c r="I2">
-        <v>900</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>117</v>
@@ -8426,34 +8426,34 @@
         <v>94</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9372546365129666</v>
       </c>
       <c r="F3">
-        <v>0.9399799765410801</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3">
         <v>27</v>
-      </c>
-      <c r="I3">
-        <v>900</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
       </c>
       <c r="L3" t="s">
         <v>117</v>
@@ -8467,34 +8467,34 @@
         <v>95</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9005103431964873</v>
       </c>
       <c r="F4">
-        <v>0.957239720670958</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>26</v>
+        <v>900</v>
       </c>
       <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
         <v>27</v>
-      </c>
-      <c r="I4">
-        <v>900</v>
-      </c>
-      <c r="J4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
       </c>
       <c r="L4" t="s">
         <v>117</v>
@@ -8508,34 +8508,34 @@
         <v>96</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9115644441003924</v>
       </c>
       <c r="F5">
-        <v>0.9199993521633606</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5">
         <v>27</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
       </c>
       <c r="L5" t="s">
         <v>117</v>
@@ -8549,34 +8549,34 @@
         <v>97</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.001632470806486129</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>0.939749120087915</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="E6">
-        <v>0.02840669024470949</v>
-      </c>
-      <c r="F6">
-        <v>0.9067355483174684</v>
-      </c>
       <c r="G6">
+        <v>900</v>
+      </c>
+      <c r="H6">
         <v>18</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6">
         <v>27</v>
-      </c>
-      <c r="I6">
-        <v>900</v>
-      </c>
-      <c r="J6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
       </c>
       <c r="L6" t="s">
         <v>117</v>
@@ -8590,34 +8590,34 @@
         <v>98</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9042630396797581</v>
       </c>
       <c r="F7">
-        <v>0.9723203326283888</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>900</v>
       </c>
       <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7">
         <v>27</v>
-      </c>
-      <c r="I7">
-        <v>900</v>
-      </c>
-      <c r="J7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K7" t="s">
-        <v>116</v>
       </c>
       <c r="L7" t="s">
         <v>117</v>
@@ -8631,34 +8631,34 @@
         <v>99</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>59</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9012202745494903</v>
       </c>
       <c r="F8">
-        <v>0.9152261028375672</v>
+        <v>74</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>900</v>
       </c>
       <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8">
         <v>27</v>
-      </c>
-      <c r="I8">
-        <v>900</v>
-      </c>
-      <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
       </c>
       <c r="L8" t="s">
         <v>117</v>
@@ -8672,34 +8672,34 @@
         <v>100</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9683479349794134</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.9381923884799737</v>
-      </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9">
         <v>27</v>
-      </c>
-      <c r="I9">
-        <v>900</v>
-      </c>
-      <c r="J9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K9" t="s">
-        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>117</v>
@@ -8713,34 +8713,34 @@
         <v>101</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.9294458386203952</v>
+      </c>
+      <c r="F10">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9336534397068017</v>
-      </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>15</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10">
         <v>27</v>
-      </c>
-      <c r="I10">
-        <v>900</v>
-      </c>
-      <c r="J10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" t="s">
-        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>117</v>
@@ -8754,34 +8754,34 @@
         <v>102</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9038063608129445</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.9172978631057142</v>
-      </c>
       <c r="G11">
+        <v>900</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11">
         <v>27</v>
-      </c>
-      <c r="I11">
-        <v>900</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>117</v>
